--- a/database/industries/ravankar/shaspa/balancesheet/quarterly.xlsx
+++ b/database/industries/ravankar/shaspa/balancesheet/quarterly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ravankar\shaspa\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D2DFED-C2B2-42A7-82CB-7836F7A23A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE5089A-180E-4C96-A6AE-9291BB4DB6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شسپا-نفت سپاهان</t>
@@ -37,24 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل اول منتهی به 1399/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/09</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1399/12</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1400/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -67,37 +49,25 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1399-04-30</t>
-  </si>
-  <si>
-    <t>1399-10-14 (2)</t>
-  </si>
-  <si>
-    <t>1399-10-27</t>
-  </si>
-  <si>
-    <t>1401-04-06 (10)</t>
-  </si>
-  <si>
-    <t>1400-05-10 (2)</t>
-  </si>
-  <si>
-    <t>1400-09-14 (3)</t>
-  </si>
-  <si>
     <t>1400-10-30</t>
   </si>
   <si>
-    <t>1401-07-30 (4)</t>
+    <t>1401-11-04 (6)</t>
   </si>
   <si>
     <t>1401-04-28</t>
   </si>
   <si>
-    <t>1401-07-30</t>
+    <t>1401-09-15 (2)</t>
+  </si>
+  <si>
+    <t>1401-11-04</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -728,7 +698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M59"/>
+  <dimension ref="B1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -736,14 +706,12 @@
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="10" width="29" customWidth="1"/>
-    <col min="11" max="11" width="31" customWidth="1"/>
-    <col min="12" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -751,13 +719,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -767,13 +730,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -783,13 +741,8 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -797,13 +750,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -813,13 +761,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -829,13 +772,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -843,13 +781,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -869,59 +802,29 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="6" t="s">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -929,15 +832,10 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -945,195 +843,115 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>1479764</v>
+        <v>10975113</v>
       </c>
       <c r="E12" s="15">
-        <v>1985995</v>
+        <v>5668445</v>
       </c>
       <c r="F12" s="15">
-        <v>1129611</v>
+        <v>10240230</v>
       </c>
       <c r="G12" s="15">
-        <v>3509499</v>
+        <v>5473963</v>
       </c>
       <c r="H12" s="15">
-        <v>5274621</v>
-      </c>
-      <c r="I12" s="15">
-        <v>10822720</v>
-      </c>
-      <c r="J12" s="15">
-        <v>10975113</v>
-      </c>
-      <c r="K12" s="15">
-        <v>5668445</v>
-      </c>
-      <c r="L12" s="15">
-        <v>10240230</v>
-      </c>
-      <c r="M12" s="15">
-        <v>5473963</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+        <v>2213134</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>1717873</v>
+        <v>2692508</v>
       </c>
       <c r="E13" s="11">
-        <v>1217873</v>
+        <v>2830566</v>
       </c>
       <c r="F13" s="11">
-        <v>1058729</v>
+        <v>4086840</v>
       </c>
       <c r="G13" s="11">
-        <v>1766429</v>
+        <v>4692885</v>
       </c>
       <c r="H13" s="11">
-        <v>1861978</v>
-      </c>
-      <c r="I13" s="11">
-        <v>1861978</v>
-      </c>
-      <c r="J13" s="11">
-        <v>2692508</v>
-      </c>
-      <c r="K13" s="11">
-        <v>2830566</v>
-      </c>
-      <c r="L13" s="11">
-        <v>4086840</v>
-      </c>
-      <c r="M13" s="11">
-        <v>4692885</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+        <v>430109</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <v>6137025</v>
+        <v>10882932</v>
       </c>
       <c r="E14" s="15">
-        <v>5207847</v>
+        <v>10960579</v>
       </c>
       <c r="F14" s="15">
-        <v>7685287</v>
+        <v>15376343</v>
       </c>
       <c r="G14" s="15">
-        <v>8617111</v>
+        <v>14907344</v>
       </c>
       <c r="H14" s="15">
-        <v>10018947</v>
-      </c>
-      <c r="I14" s="15">
-        <v>13540012</v>
-      </c>
-      <c r="J14" s="15">
-        <v>10882932</v>
-      </c>
-      <c r="K14" s="15">
-        <v>10960579</v>
-      </c>
-      <c r="L14" s="15">
-        <v>15376343</v>
-      </c>
-      <c r="M14" s="15">
-        <v>15212928</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+        <v>19050062</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
-        <v>7789867</v>
+        <v>25767961</v>
       </c>
       <c r="E15" s="11">
-        <v>10053352</v>
+        <v>33042564</v>
       </c>
       <c r="F15" s="11">
-        <v>15866095</v>
+        <v>42594144</v>
       </c>
       <c r="G15" s="11">
-        <v>17922785</v>
+        <v>32237796</v>
       </c>
       <c r="H15" s="11">
-        <v>22266993</v>
-      </c>
-      <c r="I15" s="11">
-        <v>21340729</v>
-      </c>
-      <c r="J15" s="11">
-        <v>25767961</v>
-      </c>
-      <c r="K15" s="11">
-        <v>33042564</v>
-      </c>
-      <c r="L15" s="11">
-        <v>42594144</v>
-      </c>
-      <c r="M15" s="11">
-        <v>32024478</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+        <v>29926403</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>3159298</v>
+        <v>8444608</v>
       </c>
       <c r="E16" s="15">
-        <v>5487792</v>
+        <v>2675456</v>
       </c>
       <c r="F16" s="15">
-        <v>6215117</v>
+        <v>3721273</v>
       </c>
       <c r="G16" s="15">
-        <v>3396654</v>
+        <v>3618472</v>
       </c>
       <c r="H16" s="15">
-        <v>4218305</v>
-      </c>
-      <c r="I16" s="15">
-        <v>3563595</v>
-      </c>
-      <c r="J16" s="15">
-        <v>8444608</v>
-      </c>
-      <c r="K16" s="15">
-        <v>2675456</v>
-      </c>
-      <c r="L16" s="15">
-        <v>3721273</v>
-      </c>
-      <c r="M16" s="15">
-        <v>4704153</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+        <v>6975381</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
@@ -1151,61 +969,31 @@
       <c r="H17" s="11">
         <v>0</v>
       </c>
-      <c r="I17" s="11">
-        <v>0</v>
-      </c>
-      <c r="J17" s="11">
-        <v>0</v>
-      </c>
-      <c r="K17" s="11">
-        <v>0</v>
-      </c>
-      <c r="L17" s="11">
-        <v>0</v>
-      </c>
-      <c r="M17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
-        <v>20283827</v>
+        <v>58763122</v>
       </c>
       <c r="E18" s="17">
-        <v>23952859</v>
+        <v>55177610</v>
       </c>
       <c r="F18" s="17">
-        <v>31954839</v>
+        <v>76018830</v>
       </c>
       <c r="G18" s="17">
-        <v>35212478</v>
+        <v>60930460</v>
       </c>
       <c r="H18" s="17">
-        <v>43640844</v>
-      </c>
-      <c r="I18" s="17">
-        <v>51129034</v>
-      </c>
-      <c r="J18" s="17">
-        <v>58763122</v>
-      </c>
-      <c r="K18" s="17">
-        <v>55177610</v>
-      </c>
-      <c r="L18" s="17">
-        <v>76018830</v>
-      </c>
-      <c r="M18" s="17">
-        <v>62108407</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+        <v>58595089</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
@@ -1223,61 +1011,31 @@
       <c r="H19" s="11">
         <v>0</v>
       </c>
-      <c r="I19" s="11">
-        <v>0</v>
-      </c>
-      <c r="J19" s="11">
-        <v>0</v>
-      </c>
-      <c r="K19" s="11">
-        <v>0</v>
-      </c>
-      <c r="L19" s="11">
-        <v>0</v>
-      </c>
-      <c r="M19" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <v>5736789</v>
+        <v>10119945</v>
       </c>
       <c r="E20" s="15">
-        <v>5767967</v>
+        <v>11449811</v>
       </c>
       <c r="F20" s="15">
-        <v>5766298</v>
+        <v>9237967</v>
       </c>
       <c r="G20" s="15">
-        <v>5766603</v>
+        <v>9642358</v>
       </c>
       <c r="H20" s="15">
-        <v>5765907</v>
-      </c>
-      <c r="I20" s="15">
-        <v>5586942</v>
-      </c>
-      <c r="J20" s="15">
-        <v>10119945</v>
-      </c>
-      <c r="K20" s="15">
-        <v>11449811</v>
-      </c>
-      <c r="L20" s="15">
-        <v>9237967</v>
-      </c>
-      <c r="M20" s="15">
-        <v>9738169</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+        <v>6644560</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1295,143 +1053,83 @@
       <c r="H21" s="11">
         <v>0</v>
       </c>
-      <c r="I21" s="11">
-        <v>0</v>
-      </c>
-      <c r="J21" s="11">
-        <v>0</v>
-      </c>
-      <c r="K21" s="11">
-        <v>0</v>
-      </c>
-      <c r="L21" s="11">
-        <v>0</v>
-      </c>
-      <c r="M21" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <v>1806537</v>
+        <v>66844001</v>
       </c>
       <c r="E22" s="15">
-        <v>2088440</v>
+        <v>67539547</v>
       </c>
       <c r="F22" s="15">
-        <v>2333357</v>
+        <v>67242200</v>
       </c>
       <c r="G22" s="15">
-        <v>7333716</v>
+        <v>68889962</v>
       </c>
       <c r="H22" s="15">
-        <v>8051085</v>
-      </c>
-      <c r="I22" s="15">
-        <v>66752414</v>
-      </c>
-      <c r="J22" s="15">
-        <v>66844001</v>
-      </c>
-      <c r="K22" s="15">
-        <v>67539547</v>
-      </c>
-      <c r="L22" s="15">
-        <v>67242200</v>
-      </c>
-      <c r="M22" s="15">
-        <v>68410509</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+        <v>74617075</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
-        <v>449303</v>
+        <v>737715</v>
       </c>
       <c r="E23" s="11">
-        <v>1268004</v>
+        <v>775958</v>
       </c>
       <c r="F23" s="11">
-        <v>2814609</v>
+        <v>839294</v>
       </c>
       <c r="G23" s="11">
-        <v>734386</v>
+        <v>866824</v>
       </c>
       <c r="H23" s="11">
-        <v>734386</v>
-      </c>
-      <c r="I23" s="11">
-        <v>733794</v>
-      </c>
-      <c r="J23" s="11">
-        <v>737715</v>
-      </c>
-      <c r="K23" s="11">
-        <v>775958</v>
-      </c>
-      <c r="L23" s="11">
-        <v>839294</v>
-      </c>
-      <c r="M23" s="11">
         <v>866824</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="M24" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
-        <v>31750</v>
+        <v>22977</v>
       </c>
       <c r="E25" s="11">
-        <v>16650</v>
+        <v>22977</v>
       </c>
       <c r="F25" s="11">
-        <v>16650</v>
+        <v>22977</v>
       </c>
       <c r="G25" s="11">
         <v>22977</v>
@@ -1439,97 +1137,52 @@
       <c r="H25" s="11">
         <v>22977</v>
       </c>
-      <c r="I25" s="11">
-        <v>22977</v>
-      </c>
-      <c r="J25" s="11">
-        <v>22977</v>
-      </c>
-      <c r="K25" s="11">
-        <v>22977</v>
-      </c>
-      <c r="L25" s="11">
-        <v>22977</v>
-      </c>
-      <c r="M25" s="11">
-        <v>22977</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
-        <v>8024379</v>
+        <v>77724638</v>
       </c>
       <c r="E26" s="17">
-        <v>9141061</v>
+        <v>79788293</v>
       </c>
       <c r="F26" s="17">
-        <v>10930914</v>
+        <v>77342438</v>
       </c>
       <c r="G26" s="17">
-        <v>13857682</v>
+        <v>79422121</v>
       </c>
       <c r="H26" s="17">
-        <v>14574355</v>
-      </c>
-      <c r="I26" s="17">
-        <v>73096127</v>
-      </c>
-      <c r="J26" s="17">
-        <v>77724638</v>
-      </c>
-      <c r="K26" s="17">
-        <v>79788293</v>
-      </c>
-      <c r="L26" s="17">
-        <v>77342438</v>
-      </c>
-      <c r="M26" s="17">
-        <v>79038479</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+        <v>82151436</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
-        <v>28308206</v>
+        <v>136487760</v>
       </c>
       <c r="E27" s="19">
-        <v>33093920</v>
+        <v>134965903</v>
       </c>
       <c r="F27" s="19">
-        <v>42885753</v>
+        <v>153361268</v>
       </c>
       <c r="G27" s="19">
-        <v>49070160</v>
+        <v>140352581</v>
       </c>
       <c r="H27" s="19">
-        <v>58215199</v>
-      </c>
-      <c r="I27" s="19">
-        <v>124225161</v>
-      </c>
-      <c r="J27" s="19">
-        <v>136487760</v>
-      </c>
-      <c r="K27" s="19">
-        <v>134965903</v>
-      </c>
-      <c r="L27" s="19">
-        <v>153361268</v>
-      </c>
-      <c r="M27" s="19">
-        <v>141146886</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+        <v>140746525</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1537,195 +1190,115 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
-        <v>3175271</v>
+        <v>15931767</v>
       </c>
       <c r="E29" s="15">
-        <v>4514719</v>
+        <v>14012731</v>
       </c>
       <c r="F29" s="15">
-        <v>8059395</v>
+        <v>20269335</v>
       </c>
       <c r="G29" s="15">
-        <v>7361366</v>
+        <v>8135873</v>
       </c>
       <c r="H29" s="15">
-        <v>9752091</v>
-      </c>
-      <c r="I29" s="15">
-        <v>8386308</v>
-      </c>
-      <c r="J29" s="15">
-        <v>15931767</v>
-      </c>
-      <c r="K29" s="15">
-        <v>14012731</v>
-      </c>
-      <c r="L29" s="15">
-        <v>20269335</v>
-      </c>
-      <c r="M29" s="15">
-        <v>8023180</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+        <v>12060327</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M30" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
-        <v>1888700</v>
+        <v>3377268</v>
       </c>
       <c r="E31" s="15">
-        <v>2289120</v>
+        <v>1588180</v>
       </c>
       <c r="F31" s="15">
-        <v>2862817</v>
+        <v>3880797</v>
       </c>
       <c r="G31" s="15">
-        <v>4297825</v>
+        <v>3520390</v>
       </c>
       <c r="H31" s="15">
-        <v>3920015</v>
-      </c>
-      <c r="I31" s="15">
-        <v>3333464</v>
-      </c>
-      <c r="J31" s="15">
-        <v>3377268</v>
-      </c>
-      <c r="K31" s="15">
-        <v>1588180</v>
-      </c>
-      <c r="L31" s="15">
-        <v>3880797</v>
-      </c>
-      <c r="M31" s="15">
-        <v>3675444</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+        <v>3365187</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
-        <v>535392</v>
+        <v>4486306</v>
       </c>
       <c r="E32" s="11">
-        <v>258312</v>
+        <v>1132899</v>
       </c>
       <c r="F32" s="11">
-        <v>362181</v>
+        <v>4800158</v>
       </c>
       <c r="G32" s="11">
-        <v>1135654</v>
+        <v>5382894</v>
       </c>
       <c r="H32" s="11">
-        <v>776728</v>
-      </c>
-      <c r="I32" s="11">
-        <v>1715454</v>
-      </c>
-      <c r="J32" s="11">
-        <v>4486306</v>
-      </c>
-      <c r="K32" s="11">
-        <v>2452899</v>
-      </c>
-      <c r="L32" s="11">
-        <v>4800158</v>
-      </c>
-      <c r="M32" s="11">
-        <v>7640906</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+        <v>7230446</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
-        <v>2819180</v>
+        <v>10677103</v>
       </c>
       <c r="E33" s="15">
-        <v>6401262</v>
+        <v>7363716</v>
       </c>
       <c r="F33" s="15">
-        <v>6286706</v>
+        <v>5757679</v>
       </c>
       <c r="G33" s="15">
-        <v>6198848</v>
+        <v>27084408</v>
       </c>
       <c r="H33" s="15">
-        <v>5799965</v>
-      </c>
-      <c r="I33" s="15">
-        <v>14397693</v>
-      </c>
-      <c r="J33" s="15">
-        <v>10677103</v>
-      </c>
-      <c r="K33" s="15">
-        <v>7363716</v>
-      </c>
-      <c r="L33" s="15">
-        <v>5757679</v>
-      </c>
-      <c r="M33" s="15">
-        <v>27084408</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+        <v>2685017</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
@@ -1741,27 +1314,12 @@
         <v>0</v>
       </c>
       <c r="H34" s="11">
-        <v>0</v>
-      </c>
-      <c r="I34" s="11">
-        <v>0</v>
-      </c>
-      <c r="J34" s="11">
-        <v>0</v>
-      </c>
-      <c r="K34" s="11">
-        <v>0</v>
-      </c>
-      <c r="L34" s="11">
-        <v>0</v>
-      </c>
-      <c r="M34" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+        <v>12227636</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
@@ -1779,25 +1337,10 @@
       <c r="H35" s="15">
         <v>0</v>
       </c>
-      <c r="I35" s="15">
-        <v>0</v>
-      </c>
-      <c r="J35" s="15">
-        <v>0</v>
-      </c>
-      <c r="K35" s="15">
-        <v>0</v>
-      </c>
-      <c r="L35" s="15">
-        <v>0</v>
-      </c>
-      <c r="M35" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11">
@@ -1815,133 +1358,73 @@
       <c r="H36" s="11">
         <v>0</v>
       </c>
-      <c r="I36" s="11">
-        <v>0</v>
-      </c>
-      <c r="J36" s="11">
-        <v>0</v>
-      </c>
-      <c r="K36" s="11">
-        <v>0</v>
-      </c>
-      <c r="L36" s="11">
-        <v>0</v>
-      </c>
-      <c r="M36" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
-        <v>8418543</v>
+        <v>34472444</v>
       </c>
       <c r="E37" s="17">
-        <v>13463413</v>
+        <v>24097526</v>
       </c>
       <c r="F37" s="17">
-        <v>17571099</v>
+        <v>34707969</v>
       </c>
       <c r="G37" s="17">
-        <v>18993693</v>
+        <v>44123565</v>
       </c>
       <c r="H37" s="17">
-        <v>20248799</v>
-      </c>
-      <c r="I37" s="17">
-        <v>27832919</v>
-      </c>
-      <c r="J37" s="17">
-        <v>34472444</v>
-      </c>
-      <c r="K37" s="17">
-        <v>25417526</v>
-      </c>
-      <c r="L37" s="17">
-        <v>34707969</v>
-      </c>
-      <c r="M37" s="17">
-        <v>46423938</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+        <v>37568613</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
-        <v>0</v>
+        <v>10618991</v>
       </c>
       <c r="E38" s="11">
         <v>0</v>
       </c>
       <c r="F38" s="11">
-        <v>0</v>
+        <v>8781392</v>
       </c>
       <c r="G38" s="11">
-        <v>0</v>
+        <v>9931130</v>
       </c>
       <c r="H38" s="11">
         <v>0</v>
       </c>
-      <c r="I38" s="11">
-        <v>10618991</v>
-      </c>
-      <c r="J38" s="11">
-        <v>10618991</v>
-      </c>
-      <c r="K38" s="11">
-        <v>9006696</v>
-      </c>
-      <c r="L38" s="11">
-        <v>8781392</v>
-      </c>
-      <c r="M38" s="11">
-        <v>8572087</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="J39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="K39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="L39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="M39" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
@@ -1959,133 +1442,73 @@
       <c r="H40" s="11">
         <v>0</v>
       </c>
-      <c r="I40" s="11">
-        <v>0</v>
-      </c>
-      <c r="J40" s="11">
-        <v>0</v>
-      </c>
-      <c r="K40" s="11">
-        <v>0</v>
-      </c>
-      <c r="L40" s="11">
-        <v>0</v>
-      </c>
-      <c r="M40" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>213555</v>
+        <v>441743</v>
       </c>
       <c r="E41" s="15">
-        <v>247947</v>
+        <v>449040</v>
       </c>
       <c r="F41" s="15">
-        <v>257843</v>
+        <v>615724</v>
       </c>
       <c r="G41" s="15">
-        <v>293732</v>
+        <v>644845</v>
       </c>
       <c r="H41" s="15">
-        <v>383017</v>
-      </c>
-      <c r="I41" s="15">
-        <v>429386</v>
-      </c>
-      <c r="J41" s="15">
-        <v>441743</v>
-      </c>
-      <c r="K41" s="15">
-        <v>449040</v>
-      </c>
-      <c r="L41" s="15">
-        <v>615724</v>
-      </c>
-      <c r="M41" s="15">
-        <v>645080</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+        <v>666329</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
-        <v>213555</v>
+        <v>11060734</v>
       </c>
       <c r="E42" s="19">
-        <v>247947</v>
+        <v>10775736</v>
       </c>
       <c r="F42" s="19">
-        <v>257843</v>
+        <v>9397116</v>
       </c>
       <c r="G42" s="19">
-        <v>293732</v>
+        <v>10575975</v>
       </c>
       <c r="H42" s="19">
-        <v>383017</v>
-      </c>
-      <c r="I42" s="19">
-        <v>11048377</v>
-      </c>
-      <c r="J42" s="19">
-        <v>11060734</v>
-      </c>
-      <c r="K42" s="19">
-        <v>9455736</v>
-      </c>
-      <c r="L42" s="19">
-        <v>9397116</v>
-      </c>
-      <c r="M42" s="19">
-        <v>9217167</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+        <v>10413997</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
-        <v>8632098</v>
+        <v>45533178</v>
       </c>
       <c r="E43" s="17">
-        <v>13711360</v>
+        <v>34873262</v>
       </c>
       <c r="F43" s="17">
-        <v>17828942</v>
+        <v>44105085</v>
       </c>
       <c r="G43" s="17">
-        <v>19287425</v>
+        <v>54699540</v>
       </c>
       <c r="H43" s="17">
-        <v>20631816</v>
-      </c>
-      <c r="I43" s="17">
-        <v>38881296</v>
-      </c>
-      <c r="J43" s="17">
-        <v>45533178</v>
-      </c>
-      <c r="K43" s="17">
-        <v>34873262</v>
-      </c>
-      <c r="L43" s="17">
-        <v>44105085</v>
-      </c>
-      <c r="M43" s="17">
-        <v>55641105</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+        <v>47982610</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -2093,51 +1516,31 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
-        <v>6000000</v>
+        <v>56000000</v>
       </c>
       <c r="E45" s="15">
-        <v>6000000</v>
+        <v>56000000</v>
       </c>
       <c r="F45" s="15">
-        <v>6000000</v>
+        <v>56000000</v>
       </c>
       <c r="G45" s="15">
-        <v>9500000</v>
+        <v>56000000</v>
       </c>
       <c r="H45" s="15">
-        <v>9500000</v>
-      </c>
-      <c r="I45" s="15">
         <v>56000000</v>
       </c>
-      <c r="J45" s="15">
-        <v>56000000</v>
-      </c>
-      <c r="K45" s="15">
-        <v>56000000</v>
-      </c>
-      <c r="L45" s="15">
-        <v>56000000</v>
-      </c>
-      <c r="M45" s="15">
-        <v>56000000</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -2155,25 +1558,10 @@
       <c r="H46" s="11">
         <v>0</v>
       </c>
-      <c r="I46" s="11">
-        <v>0</v>
-      </c>
-      <c r="J46" s="11">
-        <v>0</v>
-      </c>
-      <c r="K46" s="11">
-        <v>0</v>
-      </c>
-      <c r="L46" s="11">
-        <v>0</v>
-      </c>
-      <c r="M46" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -2191,25 +1579,10 @@
       <c r="H47" s="15">
         <v>0</v>
       </c>
-      <c r="I47" s="15">
-        <v>0</v>
-      </c>
-      <c r="J47" s="15">
-        <v>0</v>
-      </c>
-      <c r="K47" s="15">
-        <v>0</v>
-      </c>
-      <c r="L47" s="15">
-        <v>0</v>
-      </c>
-      <c r="M47" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
@@ -2227,25 +1600,10 @@
       <c r="H48" s="11">
         <v>0</v>
       </c>
-      <c r="I48" s="11">
-        <v>0</v>
-      </c>
-      <c r="J48" s="11">
-        <v>0</v>
-      </c>
-      <c r="K48" s="11">
-        <v>0</v>
-      </c>
-      <c r="L48" s="11">
-        <v>0</v>
-      </c>
-      <c r="M48" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
@@ -2263,61 +1621,31 @@
       <c r="H49" s="15">
         <v>0</v>
       </c>
-      <c r="I49" s="15">
-        <v>0</v>
-      </c>
-      <c r="J49" s="15">
-        <v>0</v>
-      </c>
-      <c r="K49" s="15">
-        <v>0</v>
-      </c>
-      <c r="L49" s="15">
-        <v>0</v>
-      </c>
-      <c r="M49" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
-        <v>600000</v>
+        <v>2206092</v>
       </c>
       <c r="E50" s="11">
-        <v>600000</v>
+        <v>2662995</v>
       </c>
       <c r="F50" s="11">
-        <v>600000</v>
+        <v>3121172</v>
       </c>
       <c r="G50" s="11">
-        <v>950000</v>
+        <v>3621015</v>
       </c>
       <c r="H50" s="11">
-        <v>950000</v>
-      </c>
-      <c r="I50" s="11">
-        <v>1895042</v>
-      </c>
-      <c r="J50" s="11">
-        <v>2206092</v>
-      </c>
-      <c r="K50" s="11">
-        <v>2662995</v>
-      </c>
-      <c r="L50" s="11">
-        <v>3121172</v>
-      </c>
-      <c r="M50" s="11">
-        <v>3613652</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+        <v>3976559</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15">
@@ -2335,61 +1663,31 @@
       <c r="H51" s="15">
         <v>0</v>
       </c>
-      <c r="I51" s="15">
-        <v>0</v>
-      </c>
-      <c r="J51" s="15">
-        <v>0</v>
-      </c>
-      <c r="K51" s="15">
-        <v>0</v>
-      </c>
-      <c r="L51" s="15">
-        <v>0</v>
-      </c>
-      <c r="M51" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M52" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
@@ -2407,61 +1705,31 @@
       <c r="H53" s="15">
         <v>0</v>
       </c>
-      <c r="I53" s="15">
-        <v>0</v>
-      </c>
-      <c r="J53" s="15">
-        <v>0</v>
-      </c>
-      <c r="K53" s="15">
-        <v>0</v>
-      </c>
-      <c r="L53" s="15">
-        <v>0</v>
-      </c>
-      <c r="M53" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M54" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15">
@@ -2479,131 +1747,71 @@
       <c r="H55" s="15">
         <v>0</v>
       </c>
-      <c r="I55" s="15">
-        <v>0</v>
-      </c>
-      <c r="J55" s="15">
-        <v>0</v>
-      </c>
-      <c r="K55" s="15">
-        <v>0</v>
-      </c>
-      <c r="L55" s="15">
-        <v>0</v>
-      </c>
-      <c r="M55" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>13076108</v>
+        <v>32748490</v>
       </c>
       <c r="E56" s="11">
-        <v>12782560</v>
+        <v>41429646</v>
       </c>
       <c r="F56" s="11">
-        <v>18456811</v>
+        <v>50135011</v>
       </c>
       <c r="G56" s="11">
-        <v>19332735</v>
+        <v>26032026</v>
       </c>
       <c r="H56" s="11">
-        <v>27133383</v>
-      </c>
-      <c r="I56" s="11">
-        <v>27448823</v>
-      </c>
-      <c r="J56" s="11">
-        <v>32748490</v>
-      </c>
-      <c r="K56" s="11">
-        <v>41429646</v>
-      </c>
-      <c r="L56" s="11">
-        <v>50135011</v>
-      </c>
-      <c r="M56" s="11">
-        <v>25892129</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+        <v>32787356</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
-        <v>19676108</v>
+        <v>90954582</v>
       </c>
       <c r="E57" s="17">
-        <v>19382560</v>
+        <v>100092641</v>
       </c>
       <c r="F57" s="17">
-        <v>25056811</v>
+        <v>109256183</v>
       </c>
       <c r="G57" s="17">
-        <v>29782735</v>
+        <v>85653041</v>
       </c>
       <c r="H57" s="17">
-        <v>37583383</v>
-      </c>
-      <c r="I57" s="17">
-        <v>85343865</v>
-      </c>
-      <c r="J57" s="17">
-        <v>90954582</v>
-      </c>
-      <c r="K57" s="17">
-        <v>100092641</v>
-      </c>
-      <c r="L57" s="17">
-        <v>109256183</v>
-      </c>
-      <c r="M57" s="17">
-        <v>85505781</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+        <v>92763915</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
-        <v>28308206</v>
+        <v>136487760</v>
       </c>
       <c r="E58" s="19">
-        <v>33093920</v>
+        <v>134965903</v>
       </c>
       <c r="F58" s="19">
-        <v>42885753</v>
+        <v>153361268</v>
       </c>
       <c r="G58" s="19">
-        <v>49070160</v>
+        <v>140352581</v>
       </c>
       <c r="H58" s="19">
-        <v>58215199</v>
-      </c>
-      <c r="I58" s="19">
-        <v>124225161</v>
-      </c>
-      <c r="J58" s="19">
-        <v>136487760</v>
-      </c>
-      <c r="K58" s="19">
-        <v>134965903</v>
-      </c>
-      <c r="L58" s="19">
-        <v>153361268</v>
-      </c>
-      <c r="M58" s="19">
-        <v>141146886</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+        <v>140746525</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2611,11 +1819,6 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/ravankar/shaspa/balancesheet/quarterly.xlsx
+++ b/database/industries/ravankar/shaspa/balancesheet/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ravankar\shaspa\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ravankar\shaspa\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE5089A-180E-4C96-A6AE-9291BB4DB6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDA9616-4E68-48DD-9A6E-E9BB06257FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -53,6 +68,21 @@
   </si>
   <si>
     <t>تاریخ انتشار</t>
+  </si>
+  <si>
+    <t>1399-10-14 (2)</t>
+  </si>
+  <si>
+    <t>1399-10-27</t>
+  </si>
+  <si>
+    <t>1401-04-06 (10)</t>
+  </si>
+  <si>
+    <t>1400-05-10 (2)</t>
+  </si>
+  <si>
+    <t>1400-09-14 (3)</t>
   </si>
   <si>
     <t>1400-10-30</t>
@@ -698,20 +728,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H59"/>
+  <dimension ref="B1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -719,8 +751,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -730,8 +767,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -741,8 +783,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -750,8 +797,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -761,8 +813,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -772,8 +829,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -781,8 +843,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -802,29 +869,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -832,10 +929,15 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -843,115 +945,195 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
+        <v>1985995</v>
+      </c>
+      <c r="E12" s="15">
+        <v>1129611</v>
+      </c>
+      <c r="F12" s="15">
+        <v>3509499</v>
+      </c>
+      <c r="G12" s="15">
+        <v>5274621</v>
+      </c>
+      <c r="H12" s="15">
+        <v>10822720</v>
+      </c>
+      <c r="I12" s="15">
         <v>10975113</v>
       </c>
-      <c r="E12" s="15">
+      <c r="J12" s="15">
         <v>5668445</v>
       </c>
-      <c r="F12" s="15">
+      <c r="K12" s="15">
         <v>10240230</v>
       </c>
-      <c r="G12" s="15">
+      <c r="L12" s="15">
         <v>5473963</v>
       </c>
-      <c r="H12" s="15">
+      <c r="M12" s="15">
         <v>2213134</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
+        <v>1217873</v>
+      </c>
+      <c r="E13" s="11">
+        <v>1058729</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1766429</v>
+      </c>
+      <c r="G13" s="11">
+        <v>1861978</v>
+      </c>
+      <c r="H13" s="11">
+        <v>1861978</v>
+      </c>
+      <c r="I13" s="11">
         <v>2692508</v>
       </c>
-      <c r="E13" s="11">
+      <c r="J13" s="11">
         <v>2830566</v>
       </c>
-      <c r="F13" s="11">
+      <c r="K13" s="11">
         <v>4086840</v>
       </c>
-      <c r="G13" s="11">
+      <c r="L13" s="11">
         <v>4692885</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>430109</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
+        <v>5207847</v>
+      </c>
+      <c r="E14" s="15">
+        <v>7685287</v>
+      </c>
+      <c r="F14" s="15">
+        <v>8617111</v>
+      </c>
+      <c r="G14" s="15">
+        <v>10018947</v>
+      </c>
+      <c r="H14" s="15">
+        <v>13540012</v>
+      </c>
+      <c r="I14" s="15">
         <v>10882932</v>
       </c>
-      <c r="E14" s="15">
+      <c r="J14" s="15">
         <v>10960579</v>
       </c>
-      <c r="F14" s="15">
+      <c r="K14" s="15">
         <v>15376343</v>
       </c>
-      <c r="G14" s="15">
+      <c r="L14" s="15">
         <v>14907344</v>
       </c>
-      <c r="H14" s="15">
+      <c r="M14" s="15">
         <v>19050062</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
+        <v>10053352</v>
+      </c>
+      <c r="E15" s="11">
+        <v>15866095</v>
+      </c>
+      <c r="F15" s="11">
+        <v>17922785</v>
+      </c>
+      <c r="G15" s="11">
+        <v>22266993</v>
+      </c>
+      <c r="H15" s="11">
+        <v>21340729</v>
+      </c>
+      <c r="I15" s="11">
         <v>25767961</v>
       </c>
-      <c r="E15" s="11">
+      <c r="J15" s="11">
         <v>33042564</v>
       </c>
-      <c r="F15" s="11">
+      <c r="K15" s="11">
         <v>42594144</v>
       </c>
-      <c r="G15" s="11">
+      <c r="L15" s="11">
         <v>32237796</v>
       </c>
-      <c r="H15" s="11">
+      <c r="M15" s="11">
         <v>29926403</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
+        <v>5487792</v>
+      </c>
+      <c r="E16" s="15">
+        <v>6215117</v>
+      </c>
+      <c r="F16" s="15">
+        <v>3396654</v>
+      </c>
+      <c r="G16" s="15">
+        <v>4218305</v>
+      </c>
+      <c r="H16" s="15">
+        <v>3563595</v>
+      </c>
+      <c r="I16" s="15">
         <v>8444608</v>
       </c>
-      <c r="E16" s="15">
+      <c r="J16" s="15">
         <v>2675456</v>
       </c>
-      <c r="F16" s="15">
+      <c r="K16" s="15">
         <v>3721273</v>
       </c>
-      <c r="G16" s="15">
+      <c r="L16" s="15">
         <v>3618472</v>
       </c>
-      <c r="H16" s="15">
+      <c r="M16" s="15">
         <v>6975381</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
@@ -969,31 +1151,61 @@
       <c r="H17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
+        <v>23952859</v>
+      </c>
+      <c r="E18" s="17">
+        <v>31954839</v>
+      </c>
+      <c r="F18" s="17">
+        <v>35212478</v>
+      </c>
+      <c r="G18" s="17">
+        <v>43640844</v>
+      </c>
+      <c r="H18" s="17">
+        <v>51129034</v>
+      </c>
+      <c r="I18" s="17">
         <v>58763122</v>
       </c>
-      <c r="E18" s="17">
+      <c r="J18" s="17">
         <v>55177610</v>
       </c>
-      <c r="F18" s="17">
+      <c r="K18" s="17">
         <v>76018830</v>
       </c>
-      <c r="G18" s="17">
+      <c r="L18" s="17">
         <v>60930460</v>
       </c>
-      <c r="H18" s="17">
+      <c r="M18" s="17">
         <v>58595089</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
@@ -1011,31 +1223,61 @@
       <c r="H19" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
+        <v>5767967</v>
+      </c>
+      <c r="E20" s="15">
+        <v>5766298</v>
+      </c>
+      <c r="F20" s="15">
+        <v>5766603</v>
+      </c>
+      <c r="G20" s="15">
+        <v>5765907</v>
+      </c>
+      <c r="H20" s="15">
+        <v>5586942</v>
+      </c>
+      <c r="I20" s="15">
         <v>10119945</v>
       </c>
-      <c r="E20" s="15">
+      <c r="J20" s="15">
         <v>11449811</v>
       </c>
-      <c r="F20" s="15">
+      <c r="K20" s="15">
         <v>9237967</v>
       </c>
-      <c r="G20" s="15">
+      <c r="L20" s="15">
         <v>9642358</v>
       </c>
-      <c r="H20" s="15">
+      <c r="M20" s="15">
         <v>6644560</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1053,80 +1295,140 @@
       <c r="H21" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
+        <v>2088440</v>
+      </c>
+      <c r="E22" s="15">
+        <v>2333357</v>
+      </c>
+      <c r="F22" s="15">
+        <v>7333716</v>
+      </c>
+      <c r="G22" s="15">
+        <v>8051085</v>
+      </c>
+      <c r="H22" s="15">
+        <v>66752414</v>
+      </c>
+      <c r="I22" s="15">
         <v>66844001</v>
       </c>
-      <c r="E22" s="15">
+      <c r="J22" s="15">
         <v>67539547</v>
       </c>
-      <c r="F22" s="15">
+      <c r="K22" s="15">
         <v>67242200</v>
       </c>
-      <c r="G22" s="15">
+      <c r="L22" s="15">
         <v>68889962</v>
       </c>
-      <c r="H22" s="15">
+      <c r="M22" s="15">
         <v>74617075</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
+        <v>1268004</v>
+      </c>
+      <c r="E23" s="11">
+        <v>2814609</v>
+      </c>
+      <c r="F23" s="11">
+        <v>734386</v>
+      </c>
+      <c r="G23" s="11">
+        <v>734386</v>
+      </c>
+      <c r="H23" s="11">
+        <v>733794</v>
+      </c>
+      <c r="I23" s="11">
         <v>737715</v>
       </c>
-      <c r="E23" s="11">
+      <c r="J23" s="11">
         <v>775958</v>
       </c>
-      <c r="F23" s="11">
+      <c r="K23" s="11">
         <v>839294</v>
       </c>
-      <c r="G23" s="11">
+      <c r="L23" s="11">
         <v>866824</v>
       </c>
-      <c r="H23" s="11">
+      <c r="M23" s="11">
         <v>866824</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
-        <v>22977</v>
+        <v>16650</v>
       </c>
       <c r="E25" s="11">
-        <v>22977</v>
+        <v>16650</v>
       </c>
       <c r="F25" s="11">
         <v>22977</v>
@@ -1137,52 +1439,97 @@
       <c r="H25" s="11">
         <v>22977</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I25" s="11">
+        <v>22977</v>
+      </c>
+      <c r="J25" s="11">
+        <v>22977</v>
+      </c>
+      <c r="K25" s="11">
+        <v>22977</v>
+      </c>
+      <c r="L25" s="11">
+        <v>22977</v>
+      </c>
+      <c r="M25" s="11">
+        <v>22977</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
+        <v>9141061</v>
+      </c>
+      <c r="E26" s="17">
+        <v>10930914</v>
+      </c>
+      <c r="F26" s="17">
+        <v>13857682</v>
+      </c>
+      <c r="G26" s="17">
+        <v>14574355</v>
+      </c>
+      <c r="H26" s="17">
+        <v>73096127</v>
+      </c>
+      <c r="I26" s="17">
         <v>77724638</v>
       </c>
-      <c r="E26" s="17">
+      <c r="J26" s="17">
         <v>79788293</v>
       </c>
-      <c r="F26" s="17">
+      <c r="K26" s="17">
         <v>77342438</v>
       </c>
-      <c r="G26" s="17">
+      <c r="L26" s="17">
         <v>79422121</v>
       </c>
-      <c r="H26" s="17">
+      <c r="M26" s="17">
         <v>82151436</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
+        <v>33093920</v>
+      </c>
+      <c r="E27" s="19">
+        <v>42885753</v>
+      </c>
+      <c r="F27" s="19">
+        <v>49070160</v>
+      </c>
+      <c r="G27" s="19">
+        <v>58215199</v>
+      </c>
+      <c r="H27" s="19">
+        <v>124225161</v>
+      </c>
+      <c r="I27" s="19">
         <v>136487760</v>
       </c>
-      <c r="E27" s="19">
+      <c r="J27" s="19">
         <v>134965903</v>
       </c>
-      <c r="F27" s="19">
+      <c r="K27" s="19">
         <v>153361268</v>
       </c>
-      <c r="G27" s="19">
+      <c r="L27" s="19">
         <v>140352581</v>
       </c>
-      <c r="H27" s="19">
+      <c r="M27" s="19">
         <v>140746525</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1190,115 +1537,195 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
+        <v>4514719</v>
+      </c>
+      <c r="E29" s="15">
+        <v>8059395</v>
+      </c>
+      <c r="F29" s="15">
+        <v>7361366</v>
+      </c>
+      <c r="G29" s="15">
+        <v>9752091</v>
+      </c>
+      <c r="H29" s="15">
+        <v>8386308</v>
+      </c>
+      <c r="I29" s="15">
         <v>15931767</v>
       </c>
-      <c r="E29" s="15">
+      <c r="J29" s="15">
         <v>14012731</v>
       </c>
-      <c r="F29" s="15">
+      <c r="K29" s="15">
         <v>20269335</v>
       </c>
-      <c r="G29" s="15">
+      <c r="L29" s="15">
         <v>8135873</v>
       </c>
-      <c r="H29" s="15">
+      <c r="M29" s="15">
         <v>12060327</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
+        <v>2289120</v>
+      </c>
+      <c r="E31" s="15">
+        <v>2862817</v>
+      </c>
+      <c r="F31" s="15">
+        <v>4297825</v>
+      </c>
+      <c r="G31" s="15">
+        <v>3920015</v>
+      </c>
+      <c r="H31" s="15">
+        <v>3333464</v>
+      </c>
+      <c r="I31" s="15">
         <v>3377268</v>
       </c>
-      <c r="E31" s="15">
+      <c r="J31" s="15">
         <v>1588180</v>
       </c>
-      <c r="F31" s="15">
+      <c r="K31" s="15">
         <v>3880797</v>
       </c>
-      <c r="G31" s="15">
+      <c r="L31" s="15">
         <v>3520390</v>
       </c>
-      <c r="H31" s="15">
+      <c r="M31" s="15">
         <v>3365187</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
+        <v>258312</v>
+      </c>
+      <c r="E32" s="11">
+        <v>362181</v>
+      </c>
+      <c r="F32" s="11">
+        <v>1135654</v>
+      </c>
+      <c r="G32" s="11">
+        <v>776728</v>
+      </c>
+      <c r="H32" s="11">
+        <v>1715454</v>
+      </c>
+      <c r="I32" s="11">
         <v>4486306</v>
       </c>
-      <c r="E32" s="11">
+      <c r="J32" s="11">
         <v>1132899</v>
       </c>
-      <c r="F32" s="11">
+      <c r="K32" s="11">
         <v>4800158</v>
       </c>
-      <c r="G32" s="11">
+      <c r="L32" s="11">
         <v>5382894</v>
       </c>
-      <c r="H32" s="11">
+      <c r="M32" s="11">
         <v>7230446</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
+        <v>6401262</v>
+      </c>
+      <c r="E33" s="15">
+        <v>6286706</v>
+      </c>
+      <c r="F33" s="15">
+        <v>6198848</v>
+      </c>
+      <c r="G33" s="15">
+        <v>5799965</v>
+      </c>
+      <c r="H33" s="15">
+        <v>14397693</v>
+      </c>
+      <c r="I33" s="15">
         <v>10677103</v>
       </c>
-      <c r="E33" s="15">
+      <c r="J33" s="15">
         <v>7363716</v>
       </c>
-      <c r="F33" s="15">
+      <c r="K33" s="15">
         <v>5757679</v>
       </c>
-      <c r="G33" s="15">
+      <c r="L33" s="15">
         <v>27084408</v>
       </c>
-      <c r="H33" s="15">
+      <c r="M33" s="15">
         <v>2685017</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
@@ -1314,12 +1741,27 @@
         <v>0</v>
       </c>
       <c r="H34" s="11">
+        <v>0</v>
+      </c>
+      <c r="I34" s="11">
+        <v>0</v>
+      </c>
+      <c r="J34" s="11">
+        <v>0</v>
+      </c>
+      <c r="K34" s="11">
+        <v>0</v>
+      </c>
+      <c r="L34" s="11">
+        <v>0</v>
+      </c>
+      <c r="M34" s="11">
         <v>12227636</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
@@ -1337,10 +1779,25 @@
       <c r="H35" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I35" s="15">
+        <v>0</v>
+      </c>
+      <c r="J35" s="15">
+        <v>0</v>
+      </c>
+      <c r="K35" s="15">
+        <v>0</v>
+      </c>
+      <c r="L35" s="15">
+        <v>0</v>
+      </c>
+      <c r="M35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11">
@@ -1358,73 +1815,133 @@
       <c r="H36" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
+        <v>13463413</v>
+      </c>
+      <c r="E37" s="17">
+        <v>17571099</v>
+      </c>
+      <c r="F37" s="17">
+        <v>18993693</v>
+      </c>
+      <c r="G37" s="17">
+        <v>20248799</v>
+      </c>
+      <c r="H37" s="17">
+        <v>27832919</v>
+      </c>
+      <c r="I37" s="17">
         <v>34472444</v>
       </c>
-      <c r="E37" s="17">
+      <c r="J37" s="17">
         <v>24097526</v>
       </c>
-      <c r="F37" s="17">
+      <c r="K37" s="17">
         <v>34707969</v>
       </c>
-      <c r="G37" s="17">
+      <c r="L37" s="17">
         <v>44123565</v>
       </c>
-      <c r="H37" s="17">
+      <c r="M37" s="17">
         <v>37568613</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
+        <v>0</v>
+      </c>
+      <c r="E38" s="11">
+        <v>0</v>
+      </c>
+      <c r="F38" s="11">
+        <v>0</v>
+      </c>
+      <c r="G38" s="11">
+        <v>0</v>
+      </c>
+      <c r="H38" s="11">
         <v>10618991</v>
       </c>
-      <c r="E38" s="11">
-        <v>0</v>
-      </c>
-      <c r="F38" s="11">
+      <c r="I38" s="11">
+        <v>10618991</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11">
         <v>8781392</v>
       </c>
-      <c r="G38" s="11">
+      <c r="L38" s="11">
         <v>9931130</v>
       </c>
-      <c r="H38" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M39" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
@@ -1442,73 +1959,133 @@
       <c r="H40" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I40" s="11">
+        <v>0</v>
+      </c>
+      <c r="J40" s="11">
+        <v>0</v>
+      </c>
+      <c r="K40" s="11">
+        <v>0</v>
+      </c>
+      <c r="L40" s="11">
+        <v>0</v>
+      </c>
+      <c r="M40" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
+        <v>247947</v>
+      </c>
+      <c r="E41" s="15">
+        <v>257843</v>
+      </c>
+      <c r="F41" s="15">
+        <v>293732</v>
+      </c>
+      <c r="G41" s="15">
+        <v>383017</v>
+      </c>
+      <c r="H41" s="15">
+        <v>429386</v>
+      </c>
+      <c r="I41" s="15">
         <v>441743</v>
       </c>
-      <c r="E41" s="15">
+      <c r="J41" s="15">
         <v>449040</v>
       </c>
-      <c r="F41" s="15">
+      <c r="K41" s="15">
         <v>615724</v>
       </c>
-      <c r="G41" s="15">
+      <c r="L41" s="15">
         <v>644845</v>
       </c>
-      <c r="H41" s="15">
+      <c r="M41" s="15">
         <v>666329</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
+        <v>247947</v>
+      </c>
+      <c r="E42" s="19">
+        <v>257843</v>
+      </c>
+      <c r="F42" s="19">
+        <v>293732</v>
+      </c>
+      <c r="G42" s="19">
+        <v>383017</v>
+      </c>
+      <c r="H42" s="19">
+        <v>11048377</v>
+      </c>
+      <c r="I42" s="19">
         <v>11060734</v>
       </c>
-      <c r="E42" s="19">
+      <c r="J42" s="19">
         <v>10775736</v>
       </c>
-      <c r="F42" s="19">
+      <c r="K42" s="19">
         <v>9397116</v>
       </c>
-      <c r="G42" s="19">
+      <c r="L42" s="19">
         <v>10575975</v>
       </c>
-      <c r="H42" s="19">
+      <c r="M42" s="19">
         <v>10413997</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
+        <v>13711360</v>
+      </c>
+      <c r="E43" s="17">
+        <v>17828942</v>
+      </c>
+      <c r="F43" s="17">
+        <v>19287425</v>
+      </c>
+      <c r="G43" s="17">
+        <v>20631816</v>
+      </c>
+      <c r="H43" s="17">
+        <v>38881296</v>
+      </c>
+      <c r="I43" s="17">
         <v>45533178</v>
       </c>
-      <c r="E43" s="17">
+      <c r="J43" s="17">
         <v>34873262</v>
       </c>
-      <c r="F43" s="17">
+      <c r="K43" s="17">
         <v>44105085</v>
       </c>
-      <c r="G43" s="17">
+      <c r="L43" s="17">
         <v>54699540</v>
       </c>
-      <c r="H43" s="17">
+      <c r="M43" s="17">
         <v>47982610</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -1516,31 +2093,51 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
-        <v>56000000</v>
+        <v>6000000</v>
       </c>
       <c r="E45" s="15">
-        <v>56000000</v>
+        <v>6000000</v>
       </c>
       <c r="F45" s="15">
-        <v>56000000</v>
+        <v>9500000</v>
       </c>
       <c r="G45" s="15">
-        <v>56000000</v>
+        <v>9500000</v>
       </c>
       <c r="H45" s="15">
         <v>56000000</v>
       </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I45" s="15">
+        <v>56000000</v>
+      </c>
+      <c r="J45" s="15">
+        <v>56000000</v>
+      </c>
+      <c r="K45" s="15">
+        <v>56000000</v>
+      </c>
+      <c r="L45" s="15">
+        <v>56000000</v>
+      </c>
+      <c r="M45" s="15">
+        <v>56000000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -1558,10 +2155,25 @@
       <c r="H46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I46" s="11">
+        <v>0</v>
+      </c>
+      <c r="J46" s="11">
+        <v>0</v>
+      </c>
+      <c r="K46" s="11">
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -1579,10 +2191,25 @@
       <c r="H47" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I47" s="15">
+        <v>0</v>
+      </c>
+      <c r="J47" s="15">
+        <v>0</v>
+      </c>
+      <c r="K47" s="15">
+        <v>0</v>
+      </c>
+      <c r="L47" s="15">
+        <v>0</v>
+      </c>
+      <c r="M47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
@@ -1600,10 +2227,25 @@
       <c r="H48" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I48" s="11">
+        <v>0</v>
+      </c>
+      <c r="J48" s="11">
+        <v>0</v>
+      </c>
+      <c r="K48" s="11">
+        <v>0</v>
+      </c>
+      <c r="L48" s="11">
+        <v>0</v>
+      </c>
+      <c r="M48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
@@ -1621,31 +2263,61 @@
       <c r="H49" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I49" s="15">
+        <v>0</v>
+      </c>
+      <c r="J49" s="15">
+        <v>0</v>
+      </c>
+      <c r="K49" s="15">
+        <v>0</v>
+      </c>
+      <c r="L49" s="15">
+        <v>0</v>
+      </c>
+      <c r="M49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
+        <v>600000</v>
+      </c>
+      <c r="E50" s="11">
+        <v>600000</v>
+      </c>
+      <c r="F50" s="11">
+        <v>950000</v>
+      </c>
+      <c r="G50" s="11">
+        <v>950000</v>
+      </c>
+      <c r="H50" s="11">
+        <v>1895042</v>
+      </c>
+      <c r="I50" s="11">
         <v>2206092</v>
       </c>
-      <c r="E50" s="11">
+      <c r="J50" s="11">
         <v>2662995</v>
       </c>
-      <c r="F50" s="11">
+      <c r="K50" s="11">
         <v>3121172</v>
       </c>
-      <c r="G50" s="11">
+      <c r="L50" s="11">
         <v>3621015</v>
       </c>
-      <c r="H50" s="11">
+      <c r="M50" s="11">
         <v>3976559</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15">
@@ -1663,31 +2335,61 @@
       <c r="H51" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I51" s="15">
+        <v>0</v>
+      </c>
+      <c r="J51" s="15">
+        <v>0</v>
+      </c>
+      <c r="K51" s="15">
+        <v>0</v>
+      </c>
+      <c r="L51" s="15">
+        <v>0</v>
+      </c>
+      <c r="M51" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
@@ -1705,31 +2407,61 @@
       <c r="H53" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I53" s="15">
+        <v>0</v>
+      </c>
+      <c r="J53" s="15">
+        <v>0</v>
+      </c>
+      <c r="K53" s="15">
+        <v>0</v>
+      </c>
+      <c r="L53" s="15">
+        <v>0</v>
+      </c>
+      <c r="M53" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15">
@@ -1747,71 +2479,131 @@
       <c r="H55" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I55" s="15">
+        <v>0</v>
+      </c>
+      <c r="J55" s="15">
+        <v>0</v>
+      </c>
+      <c r="K55" s="15">
+        <v>0</v>
+      </c>
+      <c r="L55" s="15">
+        <v>0</v>
+      </c>
+      <c r="M55" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
+        <v>12782560</v>
+      </c>
+      <c r="E56" s="11">
+        <v>18456811</v>
+      </c>
+      <c r="F56" s="11">
+        <v>19332735</v>
+      </c>
+      <c r="G56" s="11">
+        <v>27133383</v>
+      </c>
+      <c r="H56" s="11">
+        <v>27448823</v>
+      </c>
+      <c r="I56" s="11">
         <v>32748490</v>
       </c>
-      <c r="E56" s="11">
+      <c r="J56" s="11">
         <v>41429646</v>
       </c>
-      <c r="F56" s="11">
+      <c r="K56" s="11">
         <v>50135011</v>
       </c>
-      <c r="G56" s="11">
+      <c r="L56" s="11">
         <v>26032026</v>
       </c>
-      <c r="H56" s="11">
+      <c r="M56" s="11">
         <v>32787356</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="16" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
+        <v>19382560</v>
+      </c>
+      <c r="E57" s="17">
+        <v>25056811</v>
+      </c>
+      <c r="F57" s="17">
+        <v>29782735</v>
+      </c>
+      <c r="G57" s="17">
+        <v>37583383</v>
+      </c>
+      <c r="H57" s="17">
+        <v>85343865</v>
+      </c>
+      <c r="I57" s="17">
         <v>90954582</v>
       </c>
-      <c r="E57" s="17">
+      <c r="J57" s="17">
         <v>100092641</v>
       </c>
-      <c r="F57" s="17">
+      <c r="K57" s="17">
         <v>109256183</v>
       </c>
-      <c r="G57" s="17">
+      <c r="L57" s="17">
         <v>85653041</v>
       </c>
-      <c r="H57" s="17">
+      <c r="M57" s="17">
         <v>92763915</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="18" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
+        <v>33093920</v>
+      </c>
+      <c r="E58" s="19">
+        <v>42885753</v>
+      </c>
+      <c r="F58" s="19">
+        <v>49070160</v>
+      </c>
+      <c r="G58" s="19">
+        <v>58215199</v>
+      </c>
+      <c r="H58" s="19">
+        <v>124225161</v>
+      </c>
+      <c r="I58" s="19">
         <v>136487760</v>
       </c>
-      <c r="E58" s="19">
+      <c r="J58" s="19">
         <v>134965903</v>
       </c>
-      <c r="F58" s="19">
+      <c r="K58" s="19">
         <v>153361268</v>
       </c>
-      <c r="G58" s="19">
+      <c r="L58" s="19">
         <v>140352581</v>
       </c>
-      <c r="H58" s="19">
+      <c r="M58" s="19">
         <v>140746525</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1819,6 +2611,11 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/ravankar/shaspa/balancesheet/quarterly.xlsx
+++ b/database/industries/ravankar/shaspa/balancesheet/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ravankar\shaspa\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ravankar\shaspa\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDA9616-4E68-48DD-9A6E-E9BB06257FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FFB3D2-D93A-44E4-B514-E19E51990D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -732,7 +732,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
@@ -743,7 +743,7 @@
     <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -757,7 +757,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -773,7 +773,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -789,7 +789,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -803,7 +803,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -819,7 +819,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -835,7 +835,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -849,7 +849,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -885,7 +885,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -921,7 +921,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -935,7 +935,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
@@ -951,7 +951,7 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>27</v>
       </c>
@@ -987,7 +987,7 @@
         <v>2213134</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>28</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>430109</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>29</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>19050062</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>30</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>29926403</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>31</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>6975381</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>32</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>33</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>58595089</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>34</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>35</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>6644560</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>36</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>37</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>74617075</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>38</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>866824</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>39</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>41</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>22977</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>42</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>82151436</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
         <v>43</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>140746525</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>44</v>
       </c>
@@ -1543,7 +1543,7 @@
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>45</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>12060327</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>46</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>47</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>3365187</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>48</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>7230446</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>49</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>2685017</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>50</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>12227636</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>51</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>52</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
         <v>53</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>37568613</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>54</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>55</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>56</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>57</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>666329</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
         <v>58</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>10413997</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
         <v>59</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>47982610</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>60</v>
       </c>
@@ -2099,7 +2099,7 @@
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>61</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>56000000</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>62</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>63</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>64</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>65</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>66</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>3976559</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>67</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>68</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>69</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>70</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>71</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>72</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>32787356</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
         <v>73</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>92763915</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
         <v>74</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>140746525</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>

--- a/database/industries/ravankar/shaspa/balancesheet/quarterly.xlsx
+++ b/database/industries/ravankar/shaspa/balancesheet/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ravankar\shaspa\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\ravankar\shaspa\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FFB3D2-D93A-44E4-B514-E19E51990D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD84A3D9-8905-495B-8042-596C363EDCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28830" yWindow="4530" windowWidth="20460" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="95">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2023</t>
+    <t>Copyright @2015 - 2024</t>
   </si>
   <si>
     <t>شسپا-نفت سپاهان</t>
@@ -37,6 +37,27 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1397/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1397/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1398/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1398/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1398/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1398/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/03</t>
+  </si>
+  <si>
     <t>فصل دوم منتهی به 1399/06</t>
   </si>
   <si>
@@ -67,9 +88,39 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1402/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1402/06</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1397-10-30</t>
+  </si>
+  <si>
+    <t>1399-04-15 (9)</t>
+  </si>
+  <si>
+    <t>1398-04-30</t>
+  </si>
+  <si>
+    <t>1398-09-13 (2)</t>
+  </si>
+  <si>
+    <t>1398-10-30</t>
+  </si>
+  <si>
+    <t>1400-04-09 (8)</t>
+  </si>
+  <si>
+    <t>1399-04-30</t>
+  </si>
+  <si>
     <t>1399-10-14 (2)</t>
   </si>
   <si>
@@ -88,7 +139,7 @@
     <t>1400-10-30</t>
   </si>
   <si>
-    <t>1401-11-04 (6)</t>
+    <t>1402-04-06 (8)</t>
   </si>
   <si>
     <t>1401-04-28</t>
@@ -98,6 +149,15 @@
   </si>
   <si>
     <t>1401-11-04</t>
+  </si>
+  <si>
+    <t>1402-09-15 (5)</t>
+  </si>
+  <si>
+    <t>1402-04-28</t>
+  </si>
+  <si>
+    <t>1402-09-15 (2)</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -728,7 +788,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M59"/>
+  <dimension ref="B1:W59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -736,14 +796,20 @@
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
+    <col min="14" max="16" width="29" customWidth="1"/>
+    <col min="17" max="17" width="31" customWidth="1"/>
+    <col min="18" max="20" width="29" customWidth="1"/>
+    <col min="21" max="21" width="31" customWidth="1"/>
+    <col min="22" max="23" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -756,8 +822,18 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -772,8 +848,18 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -788,8 +874,18 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -802,8 +898,18 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -818,8 +924,18 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -834,8 +950,18 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -848,8 +974,18 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -884,44 +1020,104 @@
       <c r="M8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -934,10 +1130,20 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -950,190 +1156,350 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
+        <v>2405877</v>
+      </c>
+      <c r="E12" s="15">
+        <v>3840478</v>
+      </c>
+      <c r="F12" s="15">
+        <v>5642656</v>
+      </c>
+      <c r="G12" s="15">
+        <v>2120835</v>
+      </c>
+      <c r="H12" s="15">
+        <v>2083785</v>
+      </c>
+      <c r="I12" s="15">
+        <v>1088399</v>
+      </c>
+      <c r="J12" s="15">
+        <v>1479764</v>
+      </c>
+      <c r="K12" s="15">
         <v>1985995</v>
       </c>
-      <c r="E12" s="15">
+      <c r="L12" s="15">
         <v>1129611</v>
       </c>
-      <c r="F12" s="15">
+      <c r="M12" s="15">
         <v>3509499</v>
       </c>
-      <c r="G12" s="15">
+      <c r="N12" s="15">
         <v>5274621</v>
       </c>
-      <c r="H12" s="15">
+      <c r="O12" s="15">
         <v>10822720</v>
       </c>
-      <c r="I12" s="15">
+      <c r="P12" s="15">
         <v>10975113</v>
       </c>
-      <c r="J12" s="15">
+      <c r="Q12" s="15">
         <v>5668445</v>
       </c>
-      <c r="K12" s="15">
+      <c r="R12" s="15">
         <v>10240230</v>
       </c>
-      <c r="L12" s="15">
+      <c r="S12" s="15">
         <v>5473963</v>
       </c>
-      <c r="M12" s="15">
+      <c r="T12" s="15">
         <v>2213134</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U12" s="15">
+        <v>5600986</v>
+      </c>
+      <c r="V12" s="15">
+        <v>2047234</v>
+      </c>
+      <c r="W12" s="15">
+        <v>9090479</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
+        <v>896</v>
+      </c>
+      <c r="E13" s="11">
+        <v>896</v>
+      </c>
+      <c r="F13" s="11">
+        <v>896</v>
+      </c>
+      <c r="G13" s="11">
+        <v>896</v>
+      </c>
+      <c r="H13" s="11">
+        <v>896</v>
+      </c>
+      <c r="I13" s="11">
+        <v>3517873</v>
+      </c>
+      <c r="J13" s="11">
+        <v>1717873</v>
+      </c>
+      <c r="K13" s="11">
         <v>1217873</v>
       </c>
-      <c r="E13" s="11">
+      <c r="L13" s="11">
         <v>1058729</v>
       </c>
-      <c r="F13" s="11">
+      <c r="M13" s="11">
         <v>1766429</v>
       </c>
-      <c r="G13" s="11">
+      <c r="N13" s="11">
         <v>1861978</v>
       </c>
-      <c r="H13" s="11">
+      <c r="O13" s="11">
         <v>1861978</v>
       </c>
-      <c r="I13" s="11">
+      <c r="P13" s="11">
         <v>2692508</v>
       </c>
-      <c r="J13" s="11">
+      <c r="Q13" s="11">
         <v>2830566</v>
       </c>
-      <c r="K13" s="11">
+      <c r="R13" s="11">
         <v>4086840</v>
       </c>
-      <c r="L13" s="11">
+      <c r="S13" s="11">
         <v>4692885</v>
       </c>
-      <c r="M13" s="11">
+      <c r="T13" s="11">
         <v>430109</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U13" s="11">
+        <v>274752</v>
+      </c>
+      <c r="V13" s="11">
+        <v>374709</v>
+      </c>
+      <c r="W13" s="11">
+        <v>374709</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
+        <v>3401028</v>
+      </c>
+      <c r="E14" s="15">
+        <v>3951869</v>
+      </c>
+      <c r="F14" s="15">
+        <v>4328690</v>
+      </c>
+      <c r="G14" s="15">
+        <v>5089916</v>
+      </c>
+      <c r="H14" s="15">
+        <v>5382904</v>
+      </c>
+      <c r="I14" s="15">
+        <v>5165022</v>
+      </c>
+      <c r="J14" s="15">
+        <v>6137025</v>
+      </c>
+      <c r="K14" s="15">
         <v>5207847</v>
       </c>
-      <c r="E14" s="15">
+      <c r="L14" s="15">
         <v>7685287</v>
       </c>
-      <c r="F14" s="15">
+      <c r="M14" s="15">
         <v>8617111</v>
       </c>
-      <c r="G14" s="15">
+      <c r="N14" s="15">
         <v>10018947</v>
       </c>
-      <c r="H14" s="15">
+      <c r="O14" s="15">
         <v>13540012</v>
       </c>
-      <c r="I14" s="15">
+      <c r="P14" s="15">
         <v>10882932</v>
       </c>
-      <c r="J14" s="15">
+      <c r="Q14" s="15">
         <v>10960579</v>
       </c>
-      <c r="K14" s="15">
+      <c r="R14" s="15">
         <v>15376343</v>
       </c>
-      <c r="L14" s="15">
+      <c r="S14" s="15">
         <v>14907344</v>
       </c>
-      <c r="M14" s="15">
+      <c r="T14" s="15">
         <v>19050062</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U14" s="15">
+        <v>23485126</v>
+      </c>
+      <c r="V14" s="15">
+        <v>26881034</v>
+      </c>
+      <c r="W14" s="15">
+        <v>33264460</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
+        <v>5796222</v>
+      </c>
+      <c r="E15" s="11">
+        <v>6384273</v>
+      </c>
+      <c r="F15" s="11">
+        <v>7860764</v>
+      </c>
+      <c r="G15" s="11">
+        <v>7988631</v>
+      </c>
+      <c r="H15" s="11">
+        <v>7491763</v>
+      </c>
+      <c r="I15" s="11">
+        <v>7811550</v>
+      </c>
+      <c r="J15" s="11">
+        <v>7789867</v>
+      </c>
+      <c r="K15" s="11">
         <v>10053352</v>
       </c>
-      <c r="E15" s="11">
+      <c r="L15" s="11">
         <v>15866095</v>
       </c>
-      <c r="F15" s="11">
+      <c r="M15" s="11">
         <v>17922785</v>
       </c>
-      <c r="G15" s="11">
+      <c r="N15" s="11">
         <v>22266993</v>
       </c>
-      <c r="H15" s="11">
+      <c r="O15" s="11">
         <v>21340729</v>
       </c>
-      <c r="I15" s="11">
+      <c r="P15" s="11">
         <v>25767961</v>
       </c>
-      <c r="J15" s="11">
+      <c r="Q15" s="11">
         <v>33042564</v>
       </c>
-      <c r="K15" s="11">
+      <c r="R15" s="11">
         <v>42594144</v>
       </c>
-      <c r="L15" s="11">
+      <c r="S15" s="11">
         <v>32237796</v>
       </c>
-      <c r="M15" s="11">
+      <c r="T15" s="11">
         <v>29926403</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U15" s="11">
+        <v>38876245</v>
+      </c>
+      <c r="V15" s="11">
+        <v>45573209</v>
+      </c>
+      <c r="W15" s="11">
+        <v>47173560</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
+        <v>2479586</v>
+      </c>
+      <c r="E16" s="15">
+        <v>1621946</v>
+      </c>
+      <c r="F16" s="15">
+        <v>2270552</v>
+      </c>
+      <c r="G16" s="15">
+        <v>1862474</v>
+      </c>
+      <c r="H16" s="15">
+        <v>2274495</v>
+      </c>
+      <c r="I16" s="15">
+        <v>2666742</v>
+      </c>
+      <c r="J16" s="15">
+        <v>3159298</v>
+      </c>
+      <c r="K16" s="15">
         <v>5487792</v>
       </c>
-      <c r="E16" s="15">
+      <c r="L16" s="15">
         <v>6215117</v>
       </c>
-      <c r="F16" s="15">
+      <c r="M16" s="15">
         <v>3396654</v>
       </c>
-      <c r="G16" s="15">
+      <c r="N16" s="15">
         <v>4218305</v>
       </c>
-      <c r="H16" s="15">
+      <c r="O16" s="15">
         <v>3563595</v>
       </c>
-      <c r="I16" s="15">
+      <c r="P16" s="15">
         <v>8444608</v>
       </c>
-      <c r="J16" s="15">
+      <c r="Q16" s="15">
         <v>2675456</v>
       </c>
-      <c r="K16" s="15">
+      <c r="R16" s="15">
         <v>3721273</v>
       </c>
-      <c r="L16" s="15">
+      <c r="S16" s="15">
         <v>3618472</v>
       </c>
-      <c r="M16" s="15">
+      <c r="T16" s="15">
         <v>6975381</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U16" s="15">
+        <v>6231028</v>
+      </c>
+      <c r="V16" s="15">
+        <v>5975875</v>
+      </c>
+      <c r="W16" s="15">
+        <v>3920058</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
@@ -1166,46 +1532,106 @@
       <c r="M17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+      <c r="O17" s="11">
+        <v>0</v>
+      </c>
+      <c r="P17" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>0</v>
+      </c>
+      <c r="R17" s="11">
+        <v>0</v>
+      </c>
+      <c r="S17" s="11">
+        <v>0</v>
+      </c>
+      <c r="T17" s="11">
+        <v>0</v>
+      </c>
+      <c r="U17" s="11">
+        <v>0</v>
+      </c>
+      <c r="V17" s="11">
+        <v>0</v>
+      </c>
+      <c r="W17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
+        <v>14083609</v>
+      </c>
+      <c r="E18" s="17">
+        <v>15799462</v>
+      </c>
+      <c r="F18" s="17">
+        <v>20103558</v>
+      </c>
+      <c r="G18" s="17">
+        <v>17062752</v>
+      </c>
+      <c r="H18" s="17">
+        <v>17233843</v>
+      </c>
+      <c r="I18" s="17">
+        <v>20249586</v>
+      </c>
+      <c r="J18" s="17">
+        <v>20283827</v>
+      </c>
+      <c r="K18" s="17">
         <v>23952859</v>
       </c>
-      <c r="E18" s="17">
+      <c r="L18" s="17">
         <v>31954839</v>
       </c>
-      <c r="F18" s="17">
+      <c r="M18" s="17">
         <v>35212478</v>
       </c>
-      <c r="G18" s="17">
+      <c r="N18" s="17">
         <v>43640844</v>
       </c>
-      <c r="H18" s="17">
+      <c r="O18" s="17">
         <v>51129034</v>
       </c>
-      <c r="I18" s="17">
+      <c r="P18" s="17">
         <v>58763122</v>
       </c>
-      <c r="J18" s="17">
+      <c r="Q18" s="17">
         <v>55177610</v>
       </c>
-      <c r="K18" s="17">
+      <c r="R18" s="17">
         <v>76018830</v>
       </c>
-      <c r="L18" s="17">
+      <c r="S18" s="17">
         <v>60930460</v>
       </c>
-      <c r="M18" s="17">
+      <c r="T18" s="17">
         <v>58595089</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U18" s="17">
+        <v>74468137</v>
+      </c>
+      <c r="V18" s="17">
+        <v>80852061</v>
+      </c>
+      <c r="W18" s="17">
+        <v>93823266</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
@@ -1238,46 +1664,106 @@
       <c r="M19" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="11">
+        <v>0</v>
+      </c>
+      <c r="O19" s="11">
+        <v>0</v>
+      </c>
+      <c r="P19" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>0</v>
+      </c>
+      <c r="R19" s="11">
+        <v>0</v>
+      </c>
+      <c r="S19" s="11">
+        <v>0</v>
+      </c>
+      <c r="T19" s="11">
+        <v>0</v>
+      </c>
+      <c r="U19" s="11">
+        <v>0</v>
+      </c>
+      <c r="V19" s="11">
+        <v>0</v>
+      </c>
+      <c r="W19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
+        <v>5031721</v>
+      </c>
+      <c r="E20" s="15">
+        <v>5031914</v>
+      </c>
+      <c r="F20" s="15">
+        <v>5031121</v>
+      </c>
+      <c r="G20" s="15">
+        <v>4985936</v>
+      </c>
+      <c r="H20" s="15">
+        <v>4986125</v>
+      </c>
+      <c r="I20" s="15">
+        <v>5031691</v>
+      </c>
+      <c r="J20" s="15">
+        <v>5736789</v>
+      </c>
+      <c r="K20" s="15">
         <v>5767967</v>
       </c>
-      <c r="E20" s="15">
+      <c r="L20" s="15">
         <v>5766298</v>
       </c>
-      <c r="F20" s="15">
+      <c r="M20" s="15">
         <v>5766603</v>
       </c>
-      <c r="G20" s="15">
+      <c r="N20" s="15">
         <v>5765907</v>
       </c>
-      <c r="H20" s="15">
+      <c r="O20" s="15">
         <v>5586942</v>
       </c>
-      <c r="I20" s="15">
+      <c r="P20" s="15">
         <v>10119945</v>
       </c>
-      <c r="J20" s="15">
+      <c r="Q20" s="15">
         <v>11449811</v>
       </c>
-      <c r="K20" s="15">
+      <c r="R20" s="15">
         <v>9237967</v>
       </c>
-      <c r="L20" s="15">
+      <c r="S20" s="15">
         <v>9642358</v>
       </c>
-      <c r="M20" s="15">
+      <c r="T20" s="15">
         <v>6644560</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U20" s="15">
+        <v>6790725</v>
+      </c>
+      <c r="V20" s="15">
+        <v>26889888</v>
+      </c>
+      <c r="W20" s="15">
+        <v>26890691</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1310,226 +1796,436 @@
       <c r="M21" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N21" s="11">
+        <v>0</v>
+      </c>
+      <c r="O21" s="11">
+        <v>0</v>
+      </c>
+      <c r="P21" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>0</v>
+      </c>
+      <c r="R21" s="11">
+        <v>0</v>
+      </c>
+      <c r="S21" s="11">
+        <v>0</v>
+      </c>
+      <c r="T21" s="11">
+        <v>0</v>
+      </c>
+      <c r="U21" s="11">
+        <v>0</v>
+      </c>
+      <c r="V21" s="11">
+        <v>0</v>
+      </c>
+      <c r="W21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
+        <v>1359997</v>
+      </c>
+      <c r="E22" s="15">
+        <v>1454656</v>
+      </c>
+      <c r="F22" s="15">
+        <v>1472094</v>
+      </c>
+      <c r="G22" s="15">
+        <v>1502445</v>
+      </c>
+      <c r="H22" s="15">
+        <v>1505944</v>
+      </c>
+      <c r="I22" s="15">
+        <v>1801596</v>
+      </c>
+      <c r="J22" s="15">
+        <v>1806537</v>
+      </c>
+      <c r="K22" s="15">
         <v>2088440</v>
       </c>
-      <c r="E22" s="15">
+      <c r="L22" s="15">
         <v>2333357</v>
       </c>
-      <c r="F22" s="15">
+      <c r="M22" s="15">
         <v>7333716</v>
       </c>
-      <c r="G22" s="15">
+      <c r="N22" s="15">
         <v>8051085</v>
       </c>
-      <c r="H22" s="15">
+      <c r="O22" s="15">
         <v>66752414</v>
       </c>
-      <c r="I22" s="15">
+      <c r="P22" s="15">
         <v>66844001</v>
       </c>
-      <c r="J22" s="15">
+      <c r="Q22" s="15">
         <v>67539547</v>
       </c>
-      <c r="K22" s="15">
+      <c r="R22" s="15">
         <v>67242200</v>
       </c>
-      <c r="L22" s="15">
+      <c r="S22" s="15">
         <v>68889962</v>
       </c>
-      <c r="M22" s="15">
+      <c r="T22" s="15">
         <v>74617075</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U22" s="15">
+        <v>77093925</v>
+      </c>
+      <c r="V22" s="15">
+        <v>76417594</v>
+      </c>
+      <c r="W22" s="15">
+        <v>79107139</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
+        <v>21545</v>
+      </c>
+      <c r="E23" s="11">
+        <v>166678</v>
+      </c>
+      <c r="F23" s="11">
+        <v>166688</v>
+      </c>
+      <c r="G23" s="11">
+        <v>260161</v>
+      </c>
+      <c r="H23" s="11">
+        <v>316021</v>
+      </c>
+      <c r="I23" s="11">
+        <v>403669</v>
+      </c>
+      <c r="J23" s="11">
+        <v>449303</v>
+      </c>
+      <c r="K23" s="11">
         <v>1268004</v>
       </c>
-      <c r="E23" s="11">
+      <c r="L23" s="11">
         <v>2814609</v>
       </c>
-      <c r="F23" s="11">
+      <c r="M23" s="11">
         <v>734386</v>
       </c>
-      <c r="G23" s="11">
+      <c r="N23" s="11">
         <v>734386</v>
       </c>
-      <c r="H23" s="11">
+      <c r="O23" s="11">
         <v>733794</v>
       </c>
-      <c r="I23" s="11">
+      <c r="P23" s="11">
         <v>737715</v>
       </c>
-      <c r="J23" s="11">
+      <c r="Q23" s="11">
         <v>775958</v>
       </c>
-      <c r="K23" s="11">
+      <c r="R23" s="11">
         <v>839294</v>
       </c>
-      <c r="L23" s="11">
+      <c r="S23" s="11">
         <v>866824</v>
       </c>
-      <c r="M23" s="11">
+      <c r="T23" s="11">
         <v>866824</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U23" s="11">
+        <v>893375</v>
+      </c>
+      <c r="V23" s="11">
+        <v>893375</v>
+      </c>
+      <c r="W23" s="11">
+        <v>883280</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M24" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="T24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="U24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="V24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="W24" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
+        <v>63500</v>
+      </c>
+      <c r="E25" s="11">
+        <v>36250</v>
+      </c>
+      <c r="F25" s="11">
+        <v>18500</v>
+      </c>
+      <c r="G25" s="11">
+        <v>36250</v>
+      </c>
+      <c r="H25" s="11">
+        <v>36250</v>
+      </c>
+      <c r="I25" s="11">
+        <v>31750</v>
+      </c>
+      <c r="J25" s="11">
+        <v>31750</v>
+      </c>
+      <c r="K25" s="11">
         <v>16650</v>
       </c>
-      <c r="E25" s="11">
+      <c r="L25" s="11">
         <v>16650</v>
-      </c>
-      <c r="F25" s="11">
-        <v>22977</v>
-      </c>
-      <c r="G25" s="11">
-        <v>22977</v>
-      </c>
-      <c r="H25" s="11">
-        <v>22977</v>
-      </c>
-      <c r="I25" s="11">
-        <v>22977</v>
-      </c>
-      <c r="J25" s="11">
-        <v>22977</v>
-      </c>
-      <c r="K25" s="11">
-        <v>22977</v>
-      </c>
-      <c r="L25" s="11">
-        <v>22977</v>
       </c>
       <c r="M25" s="11">
         <v>22977</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="11">
+        <v>22977</v>
+      </c>
+      <c r="O25" s="11">
+        <v>22977</v>
+      </c>
+      <c r="P25" s="11">
+        <v>22977</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>22977</v>
+      </c>
+      <c r="R25" s="11">
+        <v>22977</v>
+      </c>
+      <c r="S25" s="11">
+        <v>22977</v>
+      </c>
+      <c r="T25" s="11">
+        <v>22977</v>
+      </c>
+      <c r="U25" s="11">
+        <v>22977</v>
+      </c>
+      <c r="V25" s="11">
+        <v>22977</v>
+      </c>
+      <c r="W25" s="11">
+        <v>8977</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
+        <v>6476763</v>
+      </c>
+      <c r="E26" s="17">
+        <v>6689498</v>
+      </c>
+      <c r="F26" s="17">
+        <v>6688403</v>
+      </c>
+      <c r="G26" s="17">
+        <v>6784792</v>
+      </c>
+      <c r="H26" s="17">
+        <v>6844340</v>
+      </c>
+      <c r="I26" s="17">
+        <v>7268706</v>
+      </c>
+      <c r="J26" s="17">
+        <v>8024379</v>
+      </c>
+      <c r="K26" s="17">
         <v>9141061</v>
       </c>
-      <c r="E26" s="17">
+      <c r="L26" s="17">
         <v>10930914</v>
       </c>
-      <c r="F26" s="17">
+      <c r="M26" s="17">
         <v>13857682</v>
       </c>
-      <c r="G26" s="17">
+      <c r="N26" s="17">
         <v>14574355</v>
       </c>
-      <c r="H26" s="17">
+      <c r="O26" s="17">
         <v>73096127</v>
       </c>
-      <c r="I26" s="17">
+      <c r="P26" s="17">
         <v>77724638</v>
       </c>
-      <c r="J26" s="17">
+      <c r="Q26" s="17">
         <v>79788293</v>
       </c>
-      <c r="K26" s="17">
+      <c r="R26" s="17">
         <v>77342438</v>
       </c>
-      <c r="L26" s="17">
+      <c r="S26" s="17">
         <v>79422121</v>
       </c>
-      <c r="M26" s="17">
+      <c r="T26" s="17">
         <v>82151436</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U26" s="17">
+        <v>84801002</v>
+      </c>
+      <c r="V26" s="17">
+        <v>104223834</v>
+      </c>
+      <c r="W26" s="17">
+        <v>106890087</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
+        <v>20560372</v>
+      </c>
+      <c r="E27" s="19">
+        <v>22488960</v>
+      </c>
+      <c r="F27" s="19">
+        <v>26791961</v>
+      </c>
+      <c r="G27" s="19">
+        <v>23847544</v>
+      </c>
+      <c r="H27" s="19">
+        <v>24078183</v>
+      </c>
+      <c r="I27" s="19">
+        <v>27518292</v>
+      </c>
+      <c r="J27" s="19">
+        <v>28308206</v>
+      </c>
+      <c r="K27" s="19">
         <v>33093920</v>
       </c>
-      <c r="E27" s="19">
+      <c r="L27" s="19">
         <v>42885753</v>
       </c>
-      <c r="F27" s="19">
+      <c r="M27" s="19">
         <v>49070160</v>
       </c>
-      <c r="G27" s="19">
+      <c r="N27" s="19">
         <v>58215199</v>
       </c>
-      <c r="H27" s="19">
+      <c r="O27" s="19">
         <v>124225161</v>
       </c>
-      <c r="I27" s="19">
+      <c r="P27" s="19">
         <v>136487760</v>
       </c>
-      <c r="J27" s="19">
+      <c r="Q27" s="19">
         <v>134965903</v>
       </c>
-      <c r="K27" s="19">
+      <c r="R27" s="19">
         <v>153361268</v>
       </c>
-      <c r="L27" s="19">
+      <c r="S27" s="19">
         <v>140352581</v>
       </c>
-      <c r="M27" s="19">
+      <c r="T27" s="19">
         <v>140746525</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U27" s="19">
+        <v>159269139</v>
+      </c>
+      <c r="V27" s="19">
+        <v>185075895</v>
+      </c>
+      <c r="W27" s="19">
+        <v>200713353</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1542,190 +2238,350 @@
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
+        <v>6057815</v>
+      </c>
+      <c r="E29" s="15">
+        <v>6210799</v>
+      </c>
+      <c r="F29" s="15">
+        <v>8295032</v>
+      </c>
+      <c r="G29" s="15">
+        <v>4151584</v>
+      </c>
+      <c r="H29" s="15">
+        <v>3166105</v>
+      </c>
+      <c r="I29" s="15">
+        <v>4465408</v>
+      </c>
+      <c r="J29" s="15">
+        <v>3175271</v>
+      </c>
+      <c r="K29" s="15">
         <v>4514719</v>
       </c>
-      <c r="E29" s="15">
+      <c r="L29" s="15">
         <v>8059395</v>
       </c>
-      <c r="F29" s="15">
+      <c r="M29" s="15">
         <v>7361366</v>
       </c>
-      <c r="G29" s="15">
+      <c r="N29" s="15">
         <v>9752091</v>
       </c>
-      <c r="H29" s="15">
+      <c r="O29" s="15">
         <v>8386308</v>
       </c>
-      <c r="I29" s="15">
+      <c r="P29" s="15">
         <v>15931767</v>
       </c>
-      <c r="J29" s="15">
+      <c r="Q29" s="15">
         <v>14012731</v>
       </c>
-      <c r="K29" s="15">
+      <c r="R29" s="15">
         <v>20269335</v>
       </c>
-      <c r="L29" s="15">
+      <c r="S29" s="15">
         <v>8135873</v>
       </c>
-      <c r="M29" s="15">
+      <c r="T29" s="15">
         <v>12060327</v>
       </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U29" s="15">
+        <v>19024672</v>
+      </c>
+      <c r="V29" s="15">
+        <v>32849839</v>
+      </c>
+      <c r="W29" s="15">
+        <v>47686659</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="O30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="R30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="S30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="T30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="V30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W30" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
+        <v>1478939</v>
+      </c>
+      <c r="E31" s="15">
+        <v>1583967</v>
+      </c>
+      <c r="F31" s="15">
+        <v>1112874</v>
+      </c>
+      <c r="G31" s="15">
+        <v>845357</v>
+      </c>
+      <c r="H31" s="15">
+        <v>1927453</v>
+      </c>
+      <c r="I31" s="15">
+        <v>1317862</v>
+      </c>
+      <c r="J31" s="15">
+        <v>1888700</v>
+      </c>
+      <c r="K31" s="15">
         <v>2289120</v>
       </c>
-      <c r="E31" s="15">
+      <c r="L31" s="15">
         <v>2862817</v>
       </c>
-      <c r="F31" s="15">
+      <c r="M31" s="15">
         <v>4297825</v>
       </c>
-      <c r="G31" s="15">
+      <c r="N31" s="15">
         <v>3920015</v>
       </c>
-      <c r="H31" s="15">
+      <c r="O31" s="15">
         <v>3333464</v>
       </c>
-      <c r="I31" s="15">
+      <c r="P31" s="15">
         <v>3377268</v>
       </c>
-      <c r="J31" s="15">
+      <c r="Q31" s="15">
         <v>1588180</v>
       </c>
-      <c r="K31" s="15">
+      <c r="R31" s="15">
         <v>3880797</v>
       </c>
-      <c r="L31" s="15">
+      <c r="S31" s="15">
         <v>3520390</v>
       </c>
-      <c r="M31" s="15">
+      <c r="T31" s="15">
         <v>3365187</v>
       </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U31" s="15">
+        <v>3528632</v>
+      </c>
+      <c r="V31" s="15">
+        <v>3209063</v>
+      </c>
+      <c r="W31" s="15">
+        <v>3369979</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
+        <v>316058</v>
+      </c>
+      <c r="E32" s="11">
+        <v>734005</v>
+      </c>
+      <c r="F32" s="11">
+        <v>240496</v>
+      </c>
+      <c r="G32" s="11">
+        <v>219095</v>
+      </c>
+      <c r="H32" s="11">
+        <v>328994</v>
+      </c>
+      <c r="I32" s="11">
+        <v>897180</v>
+      </c>
+      <c r="J32" s="11">
+        <v>535392</v>
+      </c>
+      <c r="K32" s="11">
         <v>258312</v>
       </c>
-      <c r="E32" s="11">
+      <c r="L32" s="11">
         <v>362181</v>
       </c>
-      <c r="F32" s="11">
+      <c r="M32" s="11">
         <v>1135654</v>
       </c>
-      <c r="G32" s="11">
+      <c r="N32" s="11">
         <v>776728</v>
       </c>
-      <c r="H32" s="11">
+      <c r="O32" s="11">
         <v>1715454</v>
       </c>
-      <c r="I32" s="11">
+      <c r="P32" s="11">
         <v>4486306</v>
       </c>
-      <c r="J32" s="11">
-        <v>1132899</v>
-      </c>
-      <c r="K32" s="11">
+      <c r="Q32" s="11">
+        <v>4491212</v>
+      </c>
+      <c r="R32" s="11">
         <v>4800158</v>
       </c>
-      <c r="L32" s="11">
+      <c r="S32" s="11">
         <v>5382894</v>
       </c>
-      <c r="M32" s="11">
+      <c r="T32" s="11">
         <v>7230446</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U32" s="11">
+        <v>10799623</v>
+      </c>
+      <c r="V32" s="11">
+        <v>13312959</v>
+      </c>
+      <c r="W32" s="11">
+        <v>13056640</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
+        <v>2349119</v>
+      </c>
+      <c r="E33" s="15">
+        <v>1712419</v>
+      </c>
+      <c r="F33" s="15">
+        <v>985084</v>
+      </c>
+      <c r="G33" s="15">
+        <v>5051185</v>
+      </c>
+      <c r="H33" s="15">
+        <v>3693847</v>
+      </c>
+      <c r="I33" s="15">
+        <v>3267003</v>
+      </c>
+      <c r="J33" s="15">
+        <v>2819180</v>
+      </c>
+      <c r="K33" s="15">
         <v>6401262</v>
       </c>
-      <c r="E33" s="15">
+      <c r="L33" s="15">
         <v>6286706</v>
       </c>
-      <c r="F33" s="15">
+      <c r="M33" s="15">
         <v>6198848</v>
       </c>
-      <c r="G33" s="15">
+      <c r="N33" s="15">
         <v>5799965</v>
       </c>
-      <c r="H33" s="15">
+      <c r="O33" s="15">
         <v>14397693</v>
       </c>
-      <c r="I33" s="15">
+      <c r="P33" s="15">
         <v>10677103</v>
       </c>
-      <c r="J33" s="15">
+      <c r="Q33" s="15">
         <v>7363716</v>
       </c>
-      <c r="K33" s="15">
+      <c r="R33" s="15">
         <v>5757679</v>
       </c>
-      <c r="L33" s="15">
+      <c r="S33" s="15">
         <v>27084408</v>
       </c>
-      <c r="M33" s="15">
+      <c r="T33" s="15">
         <v>2685017</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U33" s="15">
+        <v>234003</v>
+      </c>
+      <c r="V33" s="15">
+        <v>228205</v>
+      </c>
+      <c r="W33" s="15">
+        <v>22227436</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
@@ -1756,12 +2612,42 @@
         <v>0</v>
       </c>
       <c r="M34" s="11">
+        <v>0</v>
+      </c>
+      <c r="N34" s="11">
+        <v>0</v>
+      </c>
+      <c r="O34" s="11">
+        <v>0</v>
+      </c>
+      <c r="P34" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="11">
+        <v>0</v>
+      </c>
+      <c r="R34" s="11">
+        <v>0</v>
+      </c>
+      <c r="S34" s="11">
+        <v>0</v>
+      </c>
+      <c r="T34" s="11">
         <v>12227636</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U34" s="11">
+        <v>10970377</v>
+      </c>
+      <c r="V34" s="11">
+        <v>10795918</v>
+      </c>
+      <c r="W34" s="11">
+        <v>8946553</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
@@ -1794,10 +2680,40 @@
       <c r="M35" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N35" s="15">
+        <v>0</v>
+      </c>
+      <c r="O35" s="15">
+        <v>0</v>
+      </c>
+      <c r="P35" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="15">
+        <v>0</v>
+      </c>
+      <c r="R35" s="15">
+        <v>0</v>
+      </c>
+      <c r="S35" s="15">
+        <v>0</v>
+      </c>
+      <c r="T35" s="15">
+        <v>0</v>
+      </c>
+      <c r="U35" s="15">
+        <v>0</v>
+      </c>
+      <c r="V35" s="15">
+        <v>0</v>
+      </c>
+      <c r="W35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11">
@@ -1830,46 +2746,106 @@
       <c r="M36" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N36" s="11">
+        <v>0</v>
+      </c>
+      <c r="O36" s="11">
+        <v>0</v>
+      </c>
+      <c r="P36" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>0</v>
+      </c>
+      <c r="R36" s="11">
+        <v>0</v>
+      </c>
+      <c r="S36" s="11">
+        <v>0</v>
+      </c>
+      <c r="T36" s="11">
+        <v>0</v>
+      </c>
+      <c r="U36" s="11">
+        <v>0</v>
+      </c>
+      <c r="V36" s="11">
+        <v>0</v>
+      </c>
+      <c r="W36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
+        <v>10201931</v>
+      </c>
+      <c r="E37" s="17">
+        <v>10241190</v>
+      </c>
+      <c r="F37" s="17">
+        <v>10633486</v>
+      </c>
+      <c r="G37" s="17">
+        <v>10267221</v>
+      </c>
+      <c r="H37" s="17">
+        <v>9116399</v>
+      </c>
+      <c r="I37" s="17">
+        <v>9947453</v>
+      </c>
+      <c r="J37" s="17">
+        <v>8418543</v>
+      </c>
+      <c r="K37" s="17">
         <v>13463413</v>
       </c>
-      <c r="E37" s="17">
+      <c r="L37" s="17">
         <v>17571099</v>
       </c>
-      <c r="F37" s="17">
+      <c r="M37" s="17">
         <v>18993693</v>
       </c>
-      <c r="G37" s="17">
+      <c r="N37" s="17">
         <v>20248799</v>
       </c>
-      <c r="H37" s="17">
+      <c r="O37" s="17">
         <v>27832919</v>
       </c>
-      <c r="I37" s="17">
+      <c r="P37" s="17">
         <v>34472444</v>
       </c>
-      <c r="J37" s="17">
-        <v>24097526</v>
-      </c>
-      <c r="K37" s="17">
+      <c r="Q37" s="17">
+        <v>27455839</v>
+      </c>
+      <c r="R37" s="17">
         <v>34707969</v>
       </c>
-      <c r="L37" s="17">
+      <c r="S37" s="17">
         <v>44123565</v>
       </c>
-      <c r="M37" s="17">
+      <c r="T37" s="17">
         <v>37568613</v>
       </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U37" s="17">
+        <v>44557307</v>
+      </c>
+      <c r="V37" s="17">
+        <v>60395984</v>
+      </c>
+      <c r="W37" s="17">
+        <v>95287267</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
@@ -1885,63 +2861,123 @@
         <v>0</v>
       </c>
       <c r="H38" s="11">
+        <v>0</v>
+      </c>
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
+        <v>0</v>
+      </c>
+      <c r="N38" s="11">
+        <v>0</v>
+      </c>
+      <c r="O38" s="11">
         <v>10618991</v>
       </c>
-      <c r="I38" s="11">
+      <c r="P38" s="11">
         <v>10618991</v>
       </c>
-      <c r="J38" s="11">
-        <v>0</v>
-      </c>
-      <c r="K38" s="11">
+      <c r="Q38" s="11">
+        <v>0</v>
+      </c>
+      <c r="R38" s="11">
         <v>8781392</v>
       </c>
-      <c r="L38" s="11">
+      <c r="S38" s="11">
         <v>9931130</v>
       </c>
-      <c r="M38" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="T38" s="11">
+        <v>0</v>
+      </c>
+      <c r="U38" s="11">
+        <v>0</v>
+      </c>
+      <c r="V38" s="11">
+        <v>0</v>
+      </c>
+      <c r="W38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C39" s="15"/>
-      <c r="D39" s="15" t="s">
-        <v>40</v>
+      <c r="D39" s="15">
+        <v>0</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
+      </c>
+      <c r="F39" s="15">
+        <v>0</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J39" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L39" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M39" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="T39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="U39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="V39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="W39" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
@@ -1974,118 +3010,238 @@
       <c r="M40" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N40" s="11">
+        <v>0</v>
+      </c>
+      <c r="O40" s="11">
+        <v>0</v>
+      </c>
+      <c r="P40" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="11">
+        <v>0</v>
+      </c>
+      <c r="R40" s="11">
+        <v>0</v>
+      </c>
+      <c r="S40" s="11">
+        <v>0</v>
+      </c>
+      <c r="T40" s="11">
+        <v>0</v>
+      </c>
+      <c r="U40" s="11">
+        <v>0</v>
+      </c>
+      <c r="V40" s="11">
+        <v>0</v>
+      </c>
+      <c r="W40" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
+        <v>137655</v>
+      </c>
+      <c r="E41" s="15">
+        <v>120481</v>
+      </c>
+      <c r="F41" s="15">
+        <v>152682</v>
+      </c>
+      <c r="G41" s="15">
+        <v>156787</v>
+      </c>
+      <c r="H41" s="15">
+        <v>173228</v>
+      </c>
+      <c r="I41" s="15">
+        <v>182650</v>
+      </c>
+      <c r="J41" s="15">
+        <v>213555</v>
+      </c>
+      <c r="K41" s="15">
         <v>247947</v>
       </c>
-      <c r="E41" s="15">
+      <c r="L41" s="15">
         <v>257843</v>
       </c>
-      <c r="F41" s="15">
+      <c r="M41" s="15">
         <v>293732</v>
       </c>
-      <c r="G41" s="15">
+      <c r="N41" s="15">
         <v>383017</v>
       </c>
-      <c r="H41" s="15">
+      <c r="O41" s="15">
         <v>429386</v>
       </c>
-      <c r="I41" s="15">
+      <c r="P41" s="15">
         <v>441743</v>
       </c>
-      <c r="J41" s="15">
+      <c r="Q41" s="15">
         <v>449040</v>
       </c>
-      <c r="K41" s="15">
+      <c r="R41" s="15">
         <v>615724</v>
       </c>
-      <c r="L41" s="15">
+      <c r="S41" s="15">
         <v>644845</v>
       </c>
-      <c r="M41" s="15">
+      <c r="T41" s="15">
         <v>666329</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U41" s="15">
+        <v>674897</v>
+      </c>
+      <c r="V41" s="15">
+        <v>848077</v>
+      </c>
+      <c r="W41" s="15">
+        <v>857685</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
+        <v>137655</v>
+      </c>
+      <c r="E42" s="19">
+        <v>120481</v>
+      </c>
+      <c r="F42" s="19">
+        <v>152682</v>
+      </c>
+      <c r="G42" s="19">
+        <v>156787</v>
+      </c>
+      <c r="H42" s="19">
+        <v>173228</v>
+      </c>
+      <c r="I42" s="19">
+        <v>182650</v>
+      </c>
+      <c r="J42" s="19">
+        <v>213555</v>
+      </c>
+      <c r="K42" s="19">
         <v>247947</v>
       </c>
-      <c r="E42" s="19">
+      <c r="L42" s="19">
         <v>257843</v>
       </c>
-      <c r="F42" s="19">
+      <c r="M42" s="19">
         <v>293732</v>
       </c>
-      <c r="G42" s="19">
+      <c r="N42" s="19">
         <v>383017</v>
       </c>
-      <c r="H42" s="19">
+      <c r="O42" s="19">
         <v>11048377</v>
       </c>
-      <c r="I42" s="19">
+      <c r="P42" s="19">
         <v>11060734</v>
       </c>
-      <c r="J42" s="19">
+      <c r="Q42" s="19">
         <v>10775736</v>
       </c>
-      <c r="K42" s="19">
+      <c r="R42" s="19">
         <v>9397116</v>
       </c>
-      <c r="L42" s="19">
+      <c r="S42" s="19">
         <v>10575975</v>
       </c>
-      <c r="M42" s="19">
+      <c r="T42" s="19">
         <v>10413997</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U42" s="19">
+        <v>10371869</v>
+      </c>
+      <c r="V42" s="19">
+        <v>10334811</v>
+      </c>
+      <c r="W42" s="19">
+        <v>10142399</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
+        <v>10339586</v>
+      </c>
+      <c r="E43" s="17">
+        <v>10361671</v>
+      </c>
+      <c r="F43" s="17">
+        <v>10786168</v>
+      </c>
+      <c r="G43" s="17">
+        <v>10424008</v>
+      </c>
+      <c r="H43" s="17">
+        <v>9289627</v>
+      </c>
+      <c r="I43" s="17">
+        <v>10130103</v>
+      </c>
+      <c r="J43" s="17">
+        <v>8632098</v>
+      </c>
+      <c r="K43" s="17">
         <v>13711360</v>
       </c>
-      <c r="E43" s="17">
+      <c r="L43" s="17">
         <v>17828942</v>
       </c>
-      <c r="F43" s="17">
+      <c r="M43" s="17">
         <v>19287425</v>
       </c>
-      <c r="G43" s="17">
+      <c r="N43" s="17">
         <v>20631816</v>
       </c>
-      <c r="H43" s="17">
+      <c r="O43" s="17">
         <v>38881296</v>
       </c>
-      <c r="I43" s="17">
+      <c r="P43" s="17">
         <v>45533178</v>
       </c>
-      <c r="J43" s="17">
-        <v>34873262</v>
-      </c>
-      <c r="K43" s="17">
+      <c r="Q43" s="17">
+        <v>38231575</v>
+      </c>
+      <c r="R43" s="17">
         <v>44105085</v>
       </c>
-      <c r="L43" s="17">
+      <c r="S43" s="17">
         <v>54699540</v>
       </c>
-      <c r="M43" s="17">
+      <c r="T43" s="17">
         <v>47982610</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U43" s="17">
+        <v>54929176</v>
+      </c>
+      <c r="V43" s="17">
+        <v>70730795</v>
+      </c>
+      <c r="W43" s="17">
+        <v>105429666</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -2098,46 +3254,86 @@
       <c r="K44" s="13"/>
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
+        <v>1050000</v>
+      </c>
+      <c r="E45" s="15">
+        <v>1050000</v>
+      </c>
+      <c r="F45" s="15">
+        <v>1050000</v>
+      </c>
+      <c r="G45" s="15">
         <v>6000000</v>
       </c>
-      <c r="E45" s="15">
+      <c r="H45" s="15">
         <v>6000000</v>
       </c>
-      <c r="F45" s="15">
+      <c r="I45" s="15">
+        <v>6000000</v>
+      </c>
+      <c r="J45" s="15">
+        <v>6000000</v>
+      </c>
+      <c r="K45" s="15">
+        <v>6000000</v>
+      </c>
+      <c r="L45" s="15">
+        <v>6000000</v>
+      </c>
+      <c r="M45" s="15">
         <v>9500000</v>
       </c>
-      <c r="G45" s="15">
+      <c r="N45" s="15">
         <v>9500000</v>
       </c>
-      <c r="H45" s="15">
+      <c r="O45" s="15">
         <v>56000000</v>
       </c>
-      <c r="I45" s="15">
+      <c r="P45" s="15">
         <v>56000000</v>
       </c>
-      <c r="J45" s="15">
+      <c r="Q45" s="15">
         <v>56000000</v>
       </c>
-      <c r="K45" s="15">
+      <c r="R45" s="15">
         <v>56000000</v>
       </c>
-      <c r="L45" s="15">
+      <c r="S45" s="15">
         <v>56000000</v>
       </c>
-      <c r="M45" s="15">
+      <c r="T45" s="15">
         <v>56000000</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U45" s="15">
+        <v>56000000</v>
+      </c>
+      <c r="V45" s="15">
+        <v>56000000</v>
+      </c>
+      <c r="W45" s="15">
+        <v>56000000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -2170,10 +3366,40 @@
       <c r="M46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N46" s="11">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11">
+        <v>0</v>
+      </c>
+      <c r="P46" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="11">
+        <v>0</v>
+      </c>
+      <c r="R46" s="11">
+        <v>0</v>
+      </c>
+      <c r="S46" s="11">
+        <v>0</v>
+      </c>
+      <c r="T46" s="11">
+        <v>0</v>
+      </c>
+      <c r="U46" s="11">
+        <v>0</v>
+      </c>
+      <c r="V46" s="11">
+        <v>0</v>
+      </c>
+      <c r="W46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -2206,10 +3432,40 @@
       <c r="M47" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N47" s="15">
+        <v>0</v>
+      </c>
+      <c r="O47" s="15">
+        <v>0</v>
+      </c>
+      <c r="P47" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="15">
+        <v>0</v>
+      </c>
+      <c r="R47" s="15">
+        <v>0</v>
+      </c>
+      <c r="S47" s="15">
+        <v>0</v>
+      </c>
+      <c r="T47" s="15">
+        <v>0</v>
+      </c>
+      <c r="U47" s="15">
+        <v>0</v>
+      </c>
+      <c r="V47" s="15">
+        <v>0</v>
+      </c>
+      <c r="W47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
@@ -2242,20 +3498,50 @@
       <c r="M48" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N48" s="11">
+        <v>0</v>
+      </c>
+      <c r="O48" s="11">
+        <v>0</v>
+      </c>
+      <c r="P48" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="11">
+        <v>0</v>
+      </c>
+      <c r="R48" s="11">
+        <v>0</v>
+      </c>
+      <c r="S48" s="11">
+        <v>0</v>
+      </c>
+      <c r="T48" s="11">
+        <v>0</v>
+      </c>
+      <c r="U48" s="11">
+        <v>-296310</v>
+      </c>
+      <c r="V48" s="11">
+        <v>-296310</v>
+      </c>
+      <c r="W48" s="11">
+        <v>-806632</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="15">
-        <v>0</v>
+      <c r="D49" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="E49" s="15">
         <v>0</v>
       </c>
-      <c r="F49" s="15">
-        <v>0</v>
+      <c r="F49" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="G49" s="15">
         <v>0</v>
@@ -2278,46 +3564,106 @@
       <c r="M49" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N49" s="15">
+        <v>0</v>
+      </c>
+      <c r="O49" s="15">
+        <v>0</v>
+      </c>
+      <c r="P49" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="15">
+        <v>0</v>
+      </c>
+      <c r="R49" s="15">
+        <v>0</v>
+      </c>
+      <c r="S49" s="15">
+        <v>0</v>
+      </c>
+      <c r="T49" s="15">
+        <v>0</v>
+      </c>
+      <c r="U49" s="15">
+        <v>71051</v>
+      </c>
+      <c r="V49" s="15">
+        <v>71051</v>
+      </c>
+      <c r="W49" s="15">
+        <v>144082</v>
+      </c>
+    </row>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
+        <v>105000</v>
+      </c>
+      <c r="E50" s="11">
+        <v>105000</v>
+      </c>
+      <c r="F50" s="11">
+        <v>105000</v>
+      </c>
+      <c r="G50" s="11">
+        <v>361300</v>
+      </c>
+      <c r="H50" s="11">
+        <v>429551</v>
+      </c>
+      <c r="I50" s="11">
         <v>600000</v>
       </c>
-      <c r="E50" s="11">
+      <c r="J50" s="11">
         <v>600000</v>
       </c>
-      <c r="F50" s="11">
+      <c r="K50" s="11">
+        <v>600000</v>
+      </c>
+      <c r="L50" s="11">
+        <v>600000</v>
+      </c>
+      <c r="M50" s="11">
         <v>950000</v>
       </c>
-      <c r="G50" s="11">
+      <c r="N50" s="11">
         <v>950000</v>
       </c>
-      <c r="H50" s="11">
+      <c r="O50" s="11">
         <v>1895042</v>
       </c>
-      <c r="I50" s="11">
+      <c r="P50" s="11">
         <v>2206092</v>
       </c>
-      <c r="J50" s="11">
+      <c r="Q50" s="11">
         <v>2662995</v>
       </c>
-      <c r="K50" s="11">
+      <c r="R50" s="11">
         <v>3121172</v>
       </c>
-      <c r="L50" s="11">
+      <c r="S50" s="11">
         <v>3621015</v>
       </c>
-      <c r="M50" s="11">
+      <c r="T50" s="11">
         <v>3976559</v>
       </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U50" s="11">
+        <v>4734540</v>
+      </c>
+      <c r="V50" s="11">
+        <v>5234797</v>
+      </c>
+      <c r="W50" s="11">
+        <v>5600000</v>
+      </c>
+    </row>
+    <row r="51" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15">
@@ -2350,46 +3696,106 @@
       <c r="M51" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N51" s="15">
+        <v>0</v>
+      </c>
+      <c r="O51" s="15">
+        <v>0</v>
+      </c>
+      <c r="P51" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="15">
+        <v>0</v>
+      </c>
+      <c r="R51" s="15">
+        <v>0</v>
+      </c>
+      <c r="S51" s="15">
+        <v>0</v>
+      </c>
+      <c r="T51" s="15">
+        <v>0</v>
+      </c>
+      <c r="U51" s="15">
+        <v>0</v>
+      </c>
+      <c r="V51" s="15">
+        <v>0</v>
+      </c>
+      <c r="W51" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C52" s="11"/>
-      <c r="D52" s="11" t="s">
-        <v>40</v>
+      <c r="D52" s="11">
+        <v>0</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
+      </c>
+      <c r="F52" s="11">
+        <v>0</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K52" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L52" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M52" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="O52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="R52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="S52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="T52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="V52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W52" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
@@ -2422,46 +3828,106 @@
       <c r="M53" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N53" s="15">
+        <v>0</v>
+      </c>
+      <c r="O53" s="15">
+        <v>0</v>
+      </c>
+      <c r="P53" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="15">
+        <v>0</v>
+      </c>
+      <c r="R53" s="15">
+        <v>0</v>
+      </c>
+      <c r="S53" s="15">
+        <v>0</v>
+      </c>
+      <c r="T53" s="15">
+        <v>0</v>
+      </c>
+      <c r="U53" s="15">
+        <v>0</v>
+      </c>
+      <c r="V53" s="15">
+        <v>0</v>
+      </c>
+      <c r="W53" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C54" s="11"/>
-      <c r="D54" s="11" t="s">
-        <v>40</v>
+      <c r="D54" s="11">
+        <v>0</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
+      </c>
+      <c r="F54" s="11">
+        <v>0</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L54" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="O54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="R54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="S54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="T54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="V54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W54" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15">
@@ -2494,116 +3960,236 @@
       <c r="M55" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N55" s="15">
+        <v>0</v>
+      </c>
+      <c r="O55" s="15">
+        <v>0</v>
+      </c>
+      <c r="P55" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="15">
+        <v>0</v>
+      </c>
+      <c r="R55" s="15">
+        <v>0</v>
+      </c>
+      <c r="S55" s="15">
+        <v>0</v>
+      </c>
+      <c r="T55" s="15">
+        <v>0</v>
+      </c>
+      <c r="U55" s="15">
+        <v>0</v>
+      </c>
+      <c r="V55" s="15">
+        <v>0</v>
+      </c>
+      <c r="W55" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
+        <v>9065786</v>
+      </c>
+      <c r="E56" s="11">
+        <v>10972289</v>
+      </c>
+      <c r="F56" s="11">
+        <v>14850793</v>
+      </c>
+      <c r="G56" s="11">
+        <v>7062236</v>
+      </c>
+      <c r="H56" s="11">
+        <v>8359005</v>
+      </c>
+      <c r="I56" s="11">
+        <v>10788189</v>
+      </c>
+      <c r="J56" s="11">
+        <v>13076108</v>
+      </c>
+      <c r="K56" s="11">
         <v>12782560</v>
       </c>
-      <c r="E56" s="11">
+      <c r="L56" s="11">
         <v>18456811</v>
       </c>
-      <c r="F56" s="11">
+      <c r="M56" s="11">
         <v>19332735</v>
       </c>
-      <c r="G56" s="11">
+      <c r="N56" s="11">
         <v>27133383</v>
       </c>
-      <c r="H56" s="11">
+      <c r="O56" s="11">
         <v>27448823</v>
       </c>
-      <c r="I56" s="11">
+      <c r="P56" s="11">
         <v>32748490</v>
       </c>
-      <c r="J56" s="11">
-        <v>41429646</v>
-      </c>
-      <c r="K56" s="11">
+      <c r="Q56" s="11">
+        <v>38071333</v>
+      </c>
+      <c r="R56" s="11">
         <v>50135011</v>
       </c>
-      <c r="L56" s="11">
+      <c r="S56" s="11">
         <v>26032026</v>
       </c>
-      <c r="M56" s="11">
+      <c r="T56" s="11">
         <v>32787356</v>
       </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U56" s="11">
+        <v>43830682</v>
+      </c>
+      <c r="V56" s="11">
+        <v>53335562</v>
+      </c>
+      <c r="W56" s="11">
+        <v>34346237</v>
+      </c>
+    </row>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
+        <v>10220786</v>
+      </c>
+      <c r="E57" s="17">
+        <v>12127289</v>
+      </c>
+      <c r="F57" s="17">
+        <v>16005793</v>
+      </c>
+      <c r="G57" s="17">
+        <v>13423536</v>
+      </c>
+      <c r="H57" s="17">
+        <v>14788556</v>
+      </c>
+      <c r="I57" s="17">
+        <v>17388189</v>
+      </c>
+      <c r="J57" s="17">
+        <v>19676108</v>
+      </c>
+      <c r="K57" s="17">
         <v>19382560</v>
       </c>
-      <c r="E57" s="17">
+      <c r="L57" s="17">
         <v>25056811</v>
       </c>
-      <c r="F57" s="17">
+      <c r="M57" s="17">
         <v>29782735</v>
       </c>
-      <c r="G57" s="17">
+      <c r="N57" s="17">
         <v>37583383</v>
       </c>
-      <c r="H57" s="17">
+      <c r="O57" s="17">
         <v>85343865</v>
       </c>
-      <c r="I57" s="17">
+      <c r="P57" s="17">
         <v>90954582</v>
       </c>
-      <c r="J57" s="17">
-        <v>100092641</v>
-      </c>
-      <c r="K57" s="17">
+      <c r="Q57" s="17">
+        <v>96734328</v>
+      </c>
+      <c r="R57" s="17">
         <v>109256183</v>
       </c>
-      <c r="L57" s="17">
+      <c r="S57" s="17">
         <v>85653041</v>
       </c>
-      <c r="M57" s="17">
+      <c r="T57" s="17">
         <v>92763915</v>
       </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U57" s="17">
+        <v>104339963</v>
+      </c>
+      <c r="V57" s="17">
+        <v>114345100</v>
+      </c>
+      <c r="W57" s="17">
+        <v>95283687</v>
+      </c>
+    </row>
+    <row r="58" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
+        <v>20560372</v>
+      </c>
+      <c r="E58" s="19">
+        <v>22488960</v>
+      </c>
+      <c r="F58" s="19">
+        <v>26791961</v>
+      </c>
+      <c r="G58" s="19">
+        <v>23847544</v>
+      </c>
+      <c r="H58" s="19">
+        <v>24078183</v>
+      </c>
+      <c r="I58" s="19">
+        <v>27518292</v>
+      </c>
+      <c r="J58" s="19">
+        <v>28308206</v>
+      </c>
+      <c r="K58" s="19">
         <v>33093920</v>
       </c>
-      <c r="E58" s="19">
+      <c r="L58" s="19">
         <v>42885753</v>
       </c>
-      <c r="F58" s="19">
+      <c r="M58" s="19">
         <v>49070160</v>
       </c>
-      <c r="G58" s="19">
+      <c r="N58" s="19">
         <v>58215199</v>
       </c>
-      <c r="H58" s="19">
+      <c r="O58" s="19">
         <v>124225161</v>
       </c>
-      <c r="I58" s="19">
+      <c r="P58" s="19">
         <v>136487760</v>
       </c>
-      <c r="J58" s="19">
+      <c r="Q58" s="19">
         <v>134965903</v>
       </c>
-      <c r="K58" s="19">
+      <c r="R58" s="19">
         <v>153361268</v>
       </c>
-      <c r="L58" s="19">
+      <c r="S58" s="19">
         <v>140352581</v>
       </c>
-      <c r="M58" s="19">
+      <c r="T58" s="19">
         <v>140746525</v>
       </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U58" s="19">
+        <v>159269139</v>
+      </c>
+      <c r="V58" s="19">
+        <v>185075895</v>
+      </c>
+      <c r="W58" s="19">
+        <v>200713353</v>
+      </c>
+    </row>
+    <row r="59" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2616,6 +4202,16 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
